--- a/test/resources/definitionsFiles/fe-automation-definition-v12_RDM-4877_showandhide_basetypes.xlsx
+++ b/test/resources/definitionsFiles/fe-automation-definition-v12_RDM-4877_showandhide_basetypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalkalita/dev/moj/ccd-case-management-web/test/resources/definitionsFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrganeshraja/MoJ/ccd-case-management-web/test/resources/definitionsFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D6B0E2-6DE9-BC48-A979-C287E004A90B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F9D3F-11AB-C949-93E1-2A2CEE5CD7D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="566">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1816,6 +1816,12 @@
   </si>
   <si>
     <t>MaritalStatusField="WIDOW"</t>
+  </si>
+  <si>
+    <t>Enter PostCode</t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1832,7 @@
     <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2107,8 +2113,17 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2202,6 +2217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2317,7 +2338,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2559,6 +2580,16 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="42" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="41" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="41" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="41" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="41" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3727,7 +3758,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
@@ -3738,7 +3769,7 @@
     <col min="11" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3789,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="57.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3780,7 +3811,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -3802,7 +3833,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -3822,7 +3853,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3834,7 +3865,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3846,7 +3877,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -3858,7 +3889,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -3870,7 +3901,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -3882,7 +3913,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3905,13 +3936,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AD73"/>
+  <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="22" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="22" customWidth="1"/>
@@ -3931,7 +3962,7 @@
     <col min="30" max="257" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>196</v>
       </c>
@@ -3970,7 +4001,7 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:29" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" ht="68.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -4031,7 +4062,7 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" ht="18" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -4094,7 +4125,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -4145,7 +4176,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -4196,7 +4227,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" ht="13.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -4247,7 +4278,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
     </row>
-    <row r="7" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -4298,7 +4329,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -4349,7 +4380,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -4400,7 +4431,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -4451,7 +4482,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
     </row>
-    <row r="11" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -4502,7 +4533,7 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
     </row>
-    <row r="12" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" ht="13.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -4553,7 +4584,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
     </row>
-    <row r="13" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" ht="13.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -4604,7 +4635,7 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
     </row>
-    <row r="14" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" ht="13.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -4655,7 +4686,7 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
     </row>
-    <row r="15" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" ht="13.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -4706,7 +4737,7 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
     </row>
-    <row r="16" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" ht="13.75" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -4757,58 +4788,58 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
     </row>
-    <row r="17" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="8" t="s">
+    <row r="17" spans="1:30" s="232" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A17" s="226">
+        <v>42737</v>
+      </c>
+      <c r="B17" s="227"/>
+      <c r="C17" s="228" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="229" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="23">
+      <c r="E17" s="229" t="s">
+        <v>552</v>
+      </c>
+      <c r="F17" s="230">
         <v>1</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="229" t="s">
         <v>218</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="H17" s="229" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="229" t="s">
+        <v>565</v>
+      </c>
+      <c r="J17" s="231">
         <v>1</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="8" t="s">
+      <c r="K17" s="227"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="227" t="s">
         <v>195</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-    </row>
-    <row r="18" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P17" s="227"/>
+      <c r="Q17" s="227"/>
+      <c r="R17" s="227"/>
+      <c r="S17" s="227"/>
+      <c r="T17" s="227"/>
+      <c r="U17" s="227"/>
+      <c r="V17" s="227"/>
+      <c r="W17" s="227"/>
+      <c r="X17" s="227"/>
+      <c r="Y17" s="227"/>
+      <c r="Z17" s="227"/>
+      <c r="AA17" s="227"/>
+      <c r="AB17" s="227"/>
+      <c r="AC17" s="227"/>
+    </row>
+    <row r="18" spans="1:30" ht="13.75" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -4820,7 +4851,7 @@
         <v>193</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F18" s="23">
         <v>1</v>
@@ -4829,13 +4860,13 @@
         <v>218</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J18" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -4859,7 +4890,7 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
     </row>
-    <row r="19" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" ht="13.75" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -4871,7 +4902,7 @@
         <v>193</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F19" s="23">
         <v>1</v>
@@ -4880,13 +4911,13 @@
         <v>218</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -4910,7 +4941,7 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
     </row>
-    <row r="20" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" ht="13.75" customHeight="1">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
@@ -4918,11 +4949,11 @@
       <c r="C20" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>366</v>
+      <c r="D20" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="F20" s="23">
         <v>1</v>
@@ -4930,14 +4961,14 @@
       <c r="G20" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H20" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>368</v>
+      <c r="H20" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="J20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -4961,19 +4992,19 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
     </row>
-    <row r="21" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" ht="13.75" customHeight="1">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>314</v>
+      <c r="C21" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>366</v>
       </c>
       <c r="F21" s="23">
         <v>1</v>
@@ -4981,11 +5012,11 @@
       <c r="G21" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>280</v>
+      <c r="H21" s="56" t="s">
+        <v>367</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="J21" s="6">
         <v>1</v>
@@ -5012,7 +5043,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
     </row>
-    <row r="22" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" ht="13.75" customHeight="1">
       <c r="A22" s="10">
         <v>42736</v>
       </c>
@@ -5023,8 +5054,8 @@
       <c r="D22" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="56" t="s">
-        <v>311</v>
+      <c r="E22" s="59" t="s">
+        <v>314</v>
       </c>
       <c r="F22" s="23">
         <v>1</v>
@@ -5032,7 +5063,7 @@
       <c r="G22" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="8" t="s">
         <v>280</v>
       </c>
       <c r="I22" s="56" t="s">
@@ -5063,7 +5094,7 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
     </row>
-    <row r="23" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:30" ht="13.75" customHeight="1">
       <c r="A23" s="10">
         <v>42736</v>
       </c>
@@ -5071,11 +5102,11 @@
       <c r="C23" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="8" t="s">
         <v>193</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F23" s="23">
         <v>1</v>
@@ -5083,14 +5114,14 @@
       <c r="G23" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>281</v>
+      <c r="H23" s="56" t="s">
+        <v>280</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -5114,58 +5145,58 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:30" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="174">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="175" t="s">
+    <row r="24" spans="1:30" ht="13.75" customHeight="1">
+      <c r="A24" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="D24" s="175" t="s">
-        <v>452</v>
-      </c>
-      <c r="E24" s="175" t="s">
-        <v>454</v>
-      </c>
-      <c r="F24" s="176">
+      <c r="D24" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="23">
         <v>1</v>
       </c>
-      <c r="G24" s="175" t="s">
-        <v>436</v>
-      </c>
-      <c r="H24" s="175" t="s">
-        <v>460</v>
-      </c>
-      <c r="I24" s="175" t="s">
-        <v>459</v>
-      </c>
-      <c r="J24" s="177">
-        <v>1</v>
-      </c>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="175" t="s">
+      <c r="G24" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P24" s="178"/>
-      <c r="Q24" s="178"/>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="178"/>
-      <c r="V24" s="178"/>
-      <c r="W24" s="178"/>
-      <c r="X24" s="178"/>
-      <c r="Y24" s="178"/>
-      <c r="Z24" s="178"/>
-      <c r="AA24" s="178"/>
-      <c r="AB24" s="178"/>
-      <c r="AC24" s="178"/>
-    </row>
-    <row r="25" spans="1:30" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+    </row>
+    <row r="25" spans="1:30" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A25" s="174">
         <v>42736</v>
       </c>
@@ -5174,22 +5205,22 @@
         <v>285</v>
       </c>
       <c r="D25" s="175" t="s">
-        <v>484</v>
-      </c>
-      <c r="E25" s="180" t="s">
-        <v>489</v>
+        <v>452</v>
+      </c>
+      <c r="E25" s="175" t="s">
+        <v>454</v>
       </c>
       <c r="F25" s="176">
         <v>1</v>
       </c>
       <c r="G25" s="175" t="s">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="H25" s="175" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="I25" s="175" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="J25" s="177">
         <v>1</v>
@@ -5216,109 +5247,109 @@
       <c r="AB25" s="178"/>
       <c r="AC25" s="178"/>
     </row>
-    <row r="26" spans="1:30" s="163" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="156">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="157" t="s">
+    <row r="26" spans="1:30" s="179" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A26" s="174">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175" t="s">
         <v>285</v>
       </c>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="175" t="s">
+        <v>484</v>
+      </c>
+      <c r="E26" s="180" t="s">
+        <v>489</v>
+      </c>
+      <c r="F26" s="176">
+        <v>1</v>
+      </c>
+      <c r="G26" s="175" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="175" t="s">
+        <v>485</v>
+      </c>
+      <c r="I26" s="175" t="s">
+        <v>486</v>
+      </c>
+      <c r="J26" s="177">
+        <v>1</v>
+      </c>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="175" t="s">
+        <v>195</v>
+      </c>
+      <c r="P26" s="178"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="178"/>
+      <c r="AB26" s="178"/>
+      <c r="AC26" s="178"/>
+    </row>
+    <row r="27" spans="1:30" s="163" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A27" s="156">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="156"/>
+      <c r="C27" s="157" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="158" t="s">
         <v>491</v>
       </c>
-      <c r="E26" s="157" t="s">
+      <c r="E27" s="157" t="s">
         <v>478</v>
       </c>
-      <c r="F26" s="159">
+      <c r="F27" s="159">
         <v>1</v>
       </c>
-      <c r="G26" s="157" t="s">
+      <c r="G27" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="157" t="s">
+      <c r="H27" s="157" t="s">
         <v>490</v>
       </c>
-      <c r="I26" s="157" t="s">
+      <c r="I27" s="157" t="s">
         <v>493</v>
       </c>
-      <c r="J26" s="160">
+      <c r="J27" s="160">
         <v>1</v>
       </c>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="157" t="s">
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161"/>
-      <c r="Z26" s="161"/>
-      <c r="AA26" s="161"/>
-      <c r="AB26" s="161"/>
-      <c r="AC26" s="161"/>
-      <c r="AD26" s="161"/>
-    </row>
-    <row r="27" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="F27" s="23">
-        <v>1</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="I27" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-    </row>
-    <row r="28" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q27" s="161"/>
+      <c r="R27" s="161"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="161"/>
+      <c r="AB27" s="161"/>
+      <c r="AC27" s="161"/>
+      <c r="AD27" s="161"/>
+    </row>
+    <row r="28" spans="1:30" ht="13.75" customHeight="1">
       <c r="A28" s="10">
         <v>42736</v>
       </c>
@@ -5330,7 +5361,7 @@
         <v>193</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F28" s="23">
         <v>1</v>
@@ -5369,7 +5400,7 @@
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
     </row>
-    <row r="29" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" ht="13.75" customHeight="1">
       <c r="A29" s="10">
         <v>42736</v>
       </c>
@@ -5381,7 +5412,7 @@
         <v>193</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F29" s="23">
         <v>1</v>
@@ -5389,7 +5420,7 @@
       <c r="G29" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="56" t="s">
         <v>219</v>
       </c>
       <c r="I29" s="56" t="s">
@@ -5420,7 +5451,7 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
     </row>
-    <row r="30" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:30" ht="13.75" customHeight="1">
       <c r="A30" s="10">
         <v>42736</v>
       </c>
@@ -5432,7 +5463,7 @@
         <v>193</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F30" s="23">
         <v>1</v>
@@ -5471,7 +5502,7 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
     </row>
-    <row r="31" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" ht="13.75" customHeight="1">
       <c r="A31" s="10">
         <v>42736</v>
       </c>
@@ -5483,7 +5514,7 @@
         <v>193</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F31" s="23">
         <v>1</v>
@@ -5522,7 +5553,7 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
     </row>
-    <row r="32" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:30" ht="13.75" customHeight="1">
       <c r="A32" s="10">
         <v>42736</v>
       </c>
@@ -5534,7 +5565,7 @@
         <v>193</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F32" s="23">
         <v>1</v>
@@ -5573,7 +5604,7 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
     </row>
-    <row r="33" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:29" ht="13.75" customHeight="1">
       <c r="A33" s="10">
         <v>42736</v>
       </c>
@@ -5585,7 +5616,7 @@
         <v>193</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F33" s="23">
         <v>1</v>
@@ -5599,7 +5630,7 @@
       <c r="I33" s="56" t="s">
         <v>365</v>
       </c>
-      <c r="J33" s="62">
+      <c r="J33" s="6">
         <v>1</v>
       </c>
       <c r="K33" s="7"/>
@@ -5624,7 +5655,7 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
     </row>
-    <row r="34" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:29" ht="13.75" customHeight="1">
       <c r="A34" s="10">
         <v>42736</v>
       </c>
@@ -5635,8 +5666,8 @@
       <c r="D34" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="58" t="s">
-        <v>364</v>
+      <c r="E34" s="56" t="s">
+        <v>338</v>
       </c>
       <c r="F34" s="23">
         <v>1</v>
@@ -5650,7 +5681,7 @@
       <c r="I34" s="56" t="s">
         <v>365</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="62">
         <v>1</v>
       </c>
       <c r="K34" s="7"/>
@@ -5675,7 +5706,7 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
     </row>
-    <row r="35" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:29" ht="13.75" customHeight="1">
       <c r="A35" s="10">
         <v>42736</v>
       </c>
@@ -5686,8 +5717,8 @@
       <c r="D35" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="61" t="s">
-        <v>348</v>
+      <c r="E35" s="58" t="s">
+        <v>364</v>
       </c>
       <c r="F35" s="23">
         <v>1</v>
@@ -5726,7 +5757,7 @@
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
     </row>
-    <row r="36" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:29" ht="13.25" customHeight="1">
       <c r="A36" s="10">
         <v>42736</v>
       </c>
@@ -5738,7 +5769,7 @@
         <v>193</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F36" s="23">
         <v>1</v>
@@ -5777,19 +5808,19 @@
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
     </row>
-    <row r="37" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:29" ht="13.25" customHeight="1">
       <c r="A37" s="10">
         <v>42736</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="56" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="56" t="s">
-        <v>387</v>
+      <c r="E37" s="61" t="s">
+        <v>354</v>
       </c>
       <c r="F37" s="23">
         <v>1</v>
@@ -5797,7 +5828,7 @@
       <c r="G37" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="H37" s="56" t="s">
+      <c r="H37" s="8" t="s">
         <v>219</v>
       </c>
       <c r="I37" s="56" t="s">
@@ -5828,7 +5859,7 @@
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
     </row>
-    <row r="38" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:29" ht="13.75" customHeight="1">
       <c r="A38" s="10">
         <v>42736</v>
       </c>
@@ -5837,10 +5868,10 @@
         <v>373</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>376</v>
+        <v>193</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="F38" s="23">
         <v>1</v>
@@ -5879,7 +5910,7 @@
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
     </row>
-    <row r="39" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:29" ht="13.75" customHeight="1">
       <c r="A39" s="10">
         <v>42736</v>
       </c>
@@ -5888,10 +5919,10 @@
         <v>373</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F39" s="23">
         <v>1</v>
@@ -5930,7 +5961,7 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
     </row>
-    <row r="40" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:29" ht="13.75" customHeight="1">
       <c r="A40" s="10">
         <v>42736</v>
       </c>
@@ -5939,10 +5970,10 @@
         <v>373</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F40" s="23">
         <v>1</v>
@@ -5981,7 +6012,7 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
     </row>
-    <row r="41" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:29" ht="13.25" customHeight="1">
       <c r="A41" s="10">
         <v>42736</v>
       </c>
@@ -5990,10 +6021,10 @@
         <v>373</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="F41" s="23">
         <v>1</v>
@@ -6032,19 +6063,19 @@
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
     </row>
-    <row r="42" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:29" ht="13.25" customHeight="1">
       <c r="A42" s="10">
         <v>42736</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="8" t="s">
-        <v>392</v>
+      <c r="C42" s="56" t="s">
+        <v>373</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>66</v>
+        <v>382</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>387</v>
       </c>
       <c r="F42" s="23">
         <v>1</v>
@@ -6052,11 +6083,11 @@
       <c r="G42" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>394</v>
+      <c r="I42" s="56" t="s">
+        <v>365</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
@@ -6083,13 +6114,13 @@
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
     </row>
-    <row r="43" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:29" ht="13.75" customHeight="1">
       <c r="A43" s="10">
         <v>42736</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>193</v>
@@ -6100,14 +6131,14 @@
       <c r="F43" s="23">
         <v>1</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>218</v>
+      <c r="G43" s="56" t="s">
+        <v>345</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>402</v>
+        <v>219</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
@@ -6134,58 +6165,58 @@
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
     </row>
-    <row r="44" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="197">
-        <v>42736</v>
-      </c>
-      <c r="B44" s="197"/>
-      <c r="C44" s="198" t="s">
+    <row r="44" spans="1:29" ht="13.75" customHeight="1">
+      <c r="A44" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D44" s="198" t="s">
+      <c r="D44" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="198" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="200">
-        <v>2</v>
-      </c>
-      <c r="G44" s="198" t="s">
+      <c r="E44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="23">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H44" s="198" t="s">
+      <c r="H44" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="I44" s="198" t="s">
+      <c r="I44" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="J44" s="215">
+      <c r="J44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="200"/>
-      <c r="L44" s="200"/>
-      <c r="M44" s="200"/>
-      <c r="N44" s="200"/>
-      <c r="O44" s="198" t="s">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="126"/>
+      <c r="O44" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P44" s="200"/>
-      <c r="Q44" s="200"/>
-      <c r="R44" s="200"/>
-      <c r="S44" s="200"/>
-      <c r="T44" s="200"/>
-      <c r="U44" s="200"/>
-      <c r="V44" s="200"/>
-      <c r="W44" s="200"/>
-      <c r="X44" s="200"/>
-      <c r="Y44" s="200"/>
-      <c r="Z44" s="200"/>
-      <c r="AA44" s="200"/>
-      <c r="AB44" s="200"/>
-      <c r="AC44" s="200"/>
-    </row>
-    <row r="45" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+    </row>
+    <row r="45" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A45" s="197">
         <v>42736</v>
       </c>
@@ -6197,10 +6228,10 @@
         <v>193</v>
       </c>
       <c r="E45" s="198" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F45" s="200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="198" t="s">
         <v>218</v>
@@ -6236,7 +6267,7 @@
       <c r="AB45" s="200"/>
       <c r="AC45" s="200"/>
     </row>
-    <row r="46" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A46" s="197">
         <v>42736</v>
       </c>
@@ -6248,10 +6279,10 @@
         <v>193</v>
       </c>
       <c r="E46" s="198" t="s">
-        <v>552</v>
+        <v>71</v>
       </c>
       <c r="F46" s="200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G46" s="198" t="s">
         <v>218</v>
@@ -6287,7 +6318,7 @@
       <c r="AB46" s="200"/>
       <c r="AC46" s="200"/>
     </row>
-    <row r="47" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A47" s="197">
         <v>42736</v>
       </c>
@@ -6298,11 +6329,11 @@
       <c r="D47" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="198" t="s">
-        <v>75</v>
+      <c r="E47" s="199" t="s">
+        <v>552</v>
       </c>
       <c r="F47" s="200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" s="198" t="s">
         <v>218</v>
@@ -6338,7 +6369,7 @@
       <c r="AB47" s="200"/>
       <c r="AC47" s="200"/>
     </row>
-    <row r="48" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A48" s="197">
         <v>42736</v>
       </c>
@@ -6350,10 +6381,10 @@
         <v>193</v>
       </c>
       <c r="E48" s="198" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F48" s="200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G48" s="198" t="s">
         <v>218</v>
@@ -6389,7 +6420,7 @@
       <c r="AB48" s="200"/>
       <c r="AC48" s="200"/>
     </row>
-    <row r="49" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A49" s="197">
         <v>42736</v>
       </c>
@@ -6400,11 +6431,11 @@
       <c r="D49" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="199" t="s">
-        <v>79</v>
+      <c r="E49" s="198" t="s">
+        <v>77</v>
       </c>
       <c r="F49" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G49" s="198" t="s">
         <v>218</v>
@@ -6440,7 +6471,7 @@
       <c r="AB49" s="200"/>
       <c r="AC49" s="200"/>
     </row>
-    <row r="50" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A50" s="197">
         <v>42736</v>
       </c>
@@ -6451,11 +6482,11 @@
       <c r="D50" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="198" t="s">
-        <v>83</v>
+      <c r="E50" s="199" t="s">
+        <v>79</v>
       </c>
       <c r="F50" s="200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" s="198" t="s">
         <v>218</v>
@@ -6491,7 +6522,7 @@
       <c r="AB50" s="200"/>
       <c r="AC50" s="200"/>
     </row>
-    <row r="51" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A51" s="197">
         <v>42736</v>
       </c>
@@ -6503,10 +6534,10 @@
         <v>193</v>
       </c>
       <c r="E51" s="198" t="s">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="F51" s="200">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="198" t="s">
         <v>218</v>
@@ -6542,7 +6573,7 @@
       <c r="AB51" s="200"/>
       <c r="AC51" s="200"/>
     </row>
-    <row r="52" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A52" s="197">
         <v>42736</v>
       </c>
@@ -6554,10 +6585,10 @@
         <v>193</v>
       </c>
       <c r="E52" s="198" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="F52" s="200">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" s="198" t="s">
         <v>218</v>
@@ -6593,113 +6624,111 @@
       <c r="AB52" s="200"/>
       <c r="AC52" s="200"/>
     </row>
-    <row r="53" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="8" t="s">
+    <row r="53" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A53" s="197">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="197"/>
+      <c r="C53" s="198" t="s">
         <v>397</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="200">
+        <v>10</v>
+      </c>
+      <c r="G53" s="198" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="198" t="s">
+        <v>402</v>
+      </c>
+      <c r="I53" s="198" t="s">
+        <v>399</v>
+      </c>
+      <c r="J53" s="215">
+        <v>1</v>
+      </c>
+      <c r="K53" s="200"/>
+      <c r="L53" s="200"/>
+      <c r="M53" s="200"/>
+      <c r="N53" s="200"/>
+      <c r="O53" s="198" t="s">
+        <v>195</v>
+      </c>
+      <c r="P53" s="200"/>
+      <c r="Q53" s="200"/>
+      <c r="R53" s="200"/>
+      <c r="S53" s="200"/>
+      <c r="T53" s="200"/>
+      <c r="U53" s="200"/>
+      <c r="V53" s="200"/>
+      <c r="W53" s="200"/>
+      <c r="X53" s="200"/>
+      <c r="Y53" s="200"/>
+      <c r="Z53" s="200"/>
+      <c r="AA53" s="200"/>
+      <c r="AB53" s="200"/>
+      <c r="AC53" s="200"/>
+    </row>
+    <row r="54" spans="1:29" ht="13.75" customHeight="1">
+      <c r="A54" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F54" s="23">
         <v>11</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G54" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H54" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I54" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J54" s="6">
         <v>1</v>
       </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7" t="s">
+      <c r="K54" s="7"/>
+      <c r="L54" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="M53" s="7"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="8" t="s">
+      <c r="M54" s="7"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-    </row>
-    <row r="54" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="197">
-        <v>42736</v>
-      </c>
-      <c r="B54" s="197"/>
-      <c r="C54" s="198" t="s">
-        <v>397</v>
-      </c>
-      <c r="D54" s="198" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54" s="199" t="s">
-        <v>532</v>
-      </c>
-      <c r="F54" s="200">
-        <v>12</v>
-      </c>
-      <c r="G54" s="198" t="s">
-        <v>218</v>
-      </c>
-      <c r="H54" s="198" t="s">
-        <v>402</v>
-      </c>
-      <c r="I54" s="198" t="s">
-        <v>399</v>
-      </c>
-      <c r="J54" s="215">
-        <v>1</v>
-      </c>
-      <c r="K54" s="200"/>
-      <c r="L54" s="201" t="s">
-        <v>554</v>
-      </c>
-      <c r="M54" s="200"/>
-      <c r="N54" s="200"/>
-      <c r="O54" s="198" t="s">
-        <v>195</v>
-      </c>
-      <c r="P54" s="200"/>
-      <c r="Q54" s="200"/>
-      <c r="R54" s="200"/>
-      <c r="S54" s="200"/>
-      <c r="T54" s="200"/>
-      <c r="U54" s="200"/>
-      <c r="V54" s="200"/>
-      <c r="W54" s="200"/>
-      <c r="X54" s="200"/>
-      <c r="Y54" s="200"/>
-      <c r="Z54" s="200"/>
-      <c r="AA54" s="200"/>
-      <c r="AB54" s="200"/>
-      <c r="AC54" s="200"/>
-    </row>
-    <row r="55" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+    </row>
+    <row r="55" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A55" s="197">
         <v>42736</v>
       </c>
@@ -6711,10 +6740,10 @@
         <v>193</v>
       </c>
       <c r="E55" s="199" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F55" s="200">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="198" t="s">
         <v>218</v>
@@ -6730,7 +6759,7 @@
       </c>
       <c r="K55" s="200"/>
       <c r="L55" s="201" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M55" s="200"/>
       <c r="N55" s="200"/>
@@ -6752,7 +6781,7 @@
       <c r="AB55" s="200"/>
       <c r="AC55" s="200"/>
     </row>
-    <row r="56" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A56" s="197">
         <v>42736</v>
       </c>
@@ -6764,10 +6793,10 @@
         <v>193</v>
       </c>
       <c r="E56" s="199" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F56" s="200">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" s="198" t="s">
         <v>218</v>
@@ -6783,7 +6812,7 @@
       </c>
       <c r="K56" s="200"/>
       <c r="L56" s="201" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M56" s="200"/>
       <c r="N56" s="200"/>
@@ -6805,7 +6834,7 @@
       <c r="AB56" s="200"/>
       <c r="AC56" s="200"/>
     </row>
-    <row r="57" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A57" s="197">
         <v>42736</v>
       </c>
@@ -6817,10 +6846,10 @@
         <v>193</v>
       </c>
       <c r="E57" s="199" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F57" s="200">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="198" t="s">
         <v>218</v>
@@ -6836,7 +6865,7 @@
       </c>
       <c r="K57" s="200"/>
       <c r="L57" s="201" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M57" s="200"/>
       <c r="N57" s="200"/>
@@ -6858,7 +6887,7 @@
       <c r="AB57" s="200"/>
       <c r="AC57" s="200"/>
     </row>
-    <row r="58" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A58" s="197">
         <v>42736</v>
       </c>
@@ -6870,10 +6899,10 @@
         <v>193</v>
       </c>
       <c r="E58" s="199" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F58" s="200">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G58" s="198" t="s">
         <v>218</v>
@@ -6889,7 +6918,7 @@
       </c>
       <c r="K58" s="200"/>
       <c r="L58" s="201" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M58" s="200"/>
       <c r="N58" s="200"/>
@@ -6911,7 +6940,7 @@
       <c r="AB58" s="200"/>
       <c r="AC58" s="200"/>
     </row>
-    <row r="59" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A59" s="197">
         <v>42736</v>
       </c>
@@ -6923,10 +6952,10 @@
         <v>193</v>
       </c>
       <c r="E59" s="199" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F59" s="200">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" s="198" t="s">
         <v>218</v>
@@ -6942,7 +6971,7 @@
       </c>
       <c r="K59" s="200"/>
       <c r="L59" s="201" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M59" s="200"/>
       <c r="N59" s="200"/>
@@ -6964,7 +6993,7 @@
       <c r="AB59" s="200"/>
       <c r="AC59" s="200"/>
     </row>
-    <row r="60" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A60" s="197">
         <v>42736</v>
       </c>
@@ -6976,10 +7005,10 @@
         <v>193</v>
       </c>
       <c r="E60" s="199" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F60" s="200">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G60" s="198" t="s">
         <v>218</v>
@@ -6994,8 +7023,8 @@
         <v>1</v>
       </c>
       <c r="K60" s="200"/>
-      <c r="L60" s="224" t="s">
-        <v>563</v>
+      <c r="L60" s="201" t="s">
+        <v>559</v>
       </c>
       <c r="M60" s="200"/>
       <c r="N60" s="200"/>
@@ -7017,7 +7046,7 @@
       <c r="AB60" s="200"/>
       <c r="AC60" s="200"/>
     </row>
-    <row r="61" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A61" s="197">
         <v>42736</v>
       </c>
@@ -7029,10 +7058,10 @@
         <v>193</v>
       </c>
       <c r="E61" s="199" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F61" s="200">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G61" s="198" t="s">
         <v>218</v>
@@ -7047,8 +7076,8 @@
         <v>1</v>
       </c>
       <c r="K61" s="200"/>
-      <c r="L61" s="198" t="s">
-        <v>560</v>
+      <c r="L61" s="224" t="s">
+        <v>563</v>
       </c>
       <c r="M61" s="200"/>
       <c r="N61" s="200"/>
@@ -7070,7 +7099,7 @@
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
     </row>
-    <row r="62" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A62" s="197">
         <v>42736</v>
       </c>
@@ -7082,10 +7111,10 @@
         <v>193</v>
       </c>
       <c r="E62" s="199" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F62" s="200">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G62" s="198" t="s">
         <v>218</v>
@@ -7101,7 +7130,7 @@
       </c>
       <c r="K62" s="200"/>
       <c r="L62" s="198" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M62" s="200"/>
       <c r="N62" s="200"/>
@@ -7123,7 +7152,7 @@
       <c r="AB62" s="200"/>
       <c r="AC62" s="200"/>
     </row>
-    <row r="63" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A63" s="197">
         <v>42736</v>
       </c>
@@ -7135,10 +7164,10 @@
         <v>193</v>
       </c>
       <c r="E63" s="199" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F63" s="200">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G63" s="198" t="s">
         <v>218</v>
@@ -7154,7 +7183,7 @@
       </c>
       <c r="K63" s="200"/>
       <c r="L63" s="198" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M63" s="200"/>
       <c r="N63" s="200"/>
@@ -7176,160 +7205,161 @@
       <c r="AB63" s="200"/>
       <c r="AC63" s="200"/>
     </row>
-    <row r="64" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="8" t="s">
+    <row r="64" spans="1:29" s="201" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A64" s="197">
+        <v>42736</v>
+      </c>
+      <c r="B64" s="197"/>
+      <c r="C64" s="198" t="s">
         <v>397</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="E64" s="56" t="s">
+      <c r="E64" s="199" t="s">
+        <v>550</v>
+      </c>
+      <c r="F64" s="200">
+        <v>25</v>
+      </c>
+      <c r="G64" s="198" t="s">
+        <v>218</v>
+      </c>
+      <c r="H64" s="198" t="s">
+        <v>402</v>
+      </c>
+      <c r="I64" s="198" t="s">
+        <v>399</v>
+      </c>
+      <c r="J64" s="215">
+        <v>1</v>
+      </c>
+      <c r="K64" s="200"/>
+      <c r="L64" s="198" t="s">
+        <v>562</v>
+      </c>
+      <c r="M64" s="200"/>
+      <c r="N64" s="200"/>
+      <c r="O64" s="198" t="s">
+        <v>195</v>
+      </c>
+      <c r="P64" s="200"/>
+      <c r="Q64" s="200"/>
+      <c r="R64" s="200"/>
+      <c r="S64" s="200"/>
+      <c r="T64" s="200"/>
+      <c r="U64" s="200"/>
+      <c r="V64" s="200"/>
+      <c r="W64" s="200"/>
+      <c r="X64" s="200"/>
+      <c r="Y64" s="200"/>
+      <c r="Z64" s="200"/>
+      <c r="AA64" s="200"/>
+      <c r="AB64" s="200"/>
+      <c r="AC64" s="200"/>
+    </row>
+    <row r="65" spans="1:29" ht="14" customHeight="1">
+      <c r="A65" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F65" s="23">
         <v>1</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H65" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="I65" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J65" s="6">
         <v>2</v>
       </c>
-      <c r="K64" s="7"/>
-      <c r="M64" s="7" t="s">
+      <c r="K65" s="7"/>
+      <c r="M65" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="N64" s="126"/>
-      <c r="O64" s="8" t="s">
+      <c r="N65" s="126"/>
+      <c r="O65" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="7"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
-    </row>
-    <row r="65" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="164">
-        <v>42736</v>
-      </c>
-      <c r="B65" s="164"/>
-      <c r="C65" s="165" t="s">
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+    </row>
+    <row r="66" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A66" s="164">
+        <v>42736</v>
+      </c>
+      <c r="B66" s="164"/>
+      <c r="C66" s="165" t="s">
         <v>397</v>
       </c>
-      <c r="D65" s="165" t="s">
+      <c r="D66" s="165" t="s">
         <v>193</v>
       </c>
-      <c r="E65" s="166" t="s">
+      <c r="E66" s="166" t="s">
         <v>494</v>
       </c>
-      <c r="F65" s="167">
+      <c r="F66" s="167">
         <v>3</v>
       </c>
-      <c r="G65" s="165" t="s">
+      <c r="G66" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="H65" s="165" t="s">
+      <c r="H66" s="165" t="s">
         <v>402</v>
       </c>
-      <c r="I65" s="165" t="s">
+      <c r="I66" s="165" t="s">
         <v>399</v>
       </c>
-      <c r="J65" s="168">
+      <c r="J66" s="168">
         <v>1</v>
       </c>
-      <c r="K65" s="167"/>
-      <c r="M65" s="167"/>
-      <c r="N65" s="165"/>
-      <c r="O65" s="170" t="s">
+      <c r="K66" s="167"/>
+      <c r="M66" s="167"/>
+      <c r="N66" s="165"/>
+      <c r="O66" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="P65" s="167"/>
-      <c r="Q65" s="167"/>
-      <c r="R65" s="167"/>
-      <c r="S65" s="167"/>
-      <c r="T65" s="167"/>
-      <c r="U65" s="167"/>
-      <c r="V65" s="167"/>
-      <c r="W65" s="167"/>
-      <c r="X65" s="167"/>
-      <c r="Y65" s="167"/>
-      <c r="Z65" s="167"/>
-      <c r="AA65" s="167"/>
-      <c r="AB65" s="167"/>
-    </row>
-    <row r="66" spans="1:29" s="213" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="208">
-        <v>42736</v>
-      </c>
-      <c r="B66" s="208"/>
-      <c r="C66" s="209" t="s">
-        <v>397</v>
-      </c>
-      <c r="D66" s="209" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="210" t="s">
-        <v>520</v>
-      </c>
-      <c r="F66" s="211">
-        <v>1</v>
-      </c>
-      <c r="G66" s="209" t="s">
-        <v>345</v>
-      </c>
-      <c r="H66" s="210" t="s">
-        <v>505</v>
-      </c>
-      <c r="I66" s="210" t="s">
-        <v>506</v>
-      </c>
-      <c r="J66" s="212">
-        <v>3</v>
-      </c>
-      <c r="K66" s="211"/>
-      <c r="M66" s="214" t="s">
-        <v>523</v>
-      </c>
-      <c r="N66" s="211"/>
-      <c r="O66" s="209" t="s">
-        <v>195</v>
-      </c>
-      <c r="P66" s="211"/>
-      <c r="Q66" s="211"/>
-      <c r="R66" s="211"/>
-      <c r="S66" s="211"/>
-      <c r="T66" s="211"/>
-      <c r="U66" s="211"/>
-      <c r="V66" s="211"/>
-      <c r="W66" s="211"/>
-      <c r="X66" s="211"/>
-      <c r="Y66" s="211"/>
-      <c r="Z66" s="211"/>
-      <c r="AA66" s="211"/>
-      <c r="AB66" s="211"/>
-      <c r="AC66" s="211"/>
-    </row>
-    <row r="67" spans="1:29" s="213" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P66" s="167"/>
+      <c r="Q66" s="167"/>
+      <c r="R66" s="167"/>
+      <c r="S66" s="167"/>
+      <c r="T66" s="167"/>
+      <c r="U66" s="167"/>
+      <c r="V66" s="167"/>
+      <c r="W66" s="167"/>
+      <c r="X66" s="167"/>
+      <c r="Y66" s="167"/>
+      <c r="Z66" s="167"/>
+      <c r="AA66" s="167"/>
+      <c r="AB66" s="167"/>
+    </row>
+    <row r="67" spans="1:29" s="213" customFormat="1" ht="13.75" customHeight="1">
       <c r="A67" s="208">
         <v>42736</v>
       </c>
@@ -7341,7 +7371,7 @@
         <v>193</v>
       </c>
       <c r="E67" s="210" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="F67" s="211">
         <v>1</v>
@@ -7350,17 +7380,17 @@
         <v>345</v>
       </c>
       <c r="H67" s="210" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I67" s="210" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J67" s="212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K67" s="211"/>
       <c r="M67" s="214" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N67" s="211"/>
       <c r="O67" s="209" t="s">
@@ -7381,57 +7411,59 @@
       <c r="AB67" s="211"/>
       <c r="AC67" s="211"/>
     </row>
-    <row r="68" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="164">
-        <v>42736</v>
-      </c>
-      <c r="B68" s="164"/>
-      <c r="C68" s="165" t="s">
+    <row r="68" spans="1:29" s="213" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A68" s="208">
+        <v>42736</v>
+      </c>
+      <c r="B68" s="208"/>
+      <c r="C68" s="209" t="s">
         <v>397</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>501</v>
-      </c>
-      <c r="E68" s="165" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="167">
+      <c r="D68" s="209" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="210" t="s">
+        <v>478</v>
+      </c>
+      <c r="F68" s="211">
         <v>1</v>
       </c>
-      <c r="G68" s="165" t="s">
-        <v>218</v>
-      </c>
-      <c r="H68" s="165" t="s">
-        <v>402</v>
-      </c>
-      <c r="I68" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="J68" s="168">
-        <v>1</v>
-      </c>
-      <c r="K68" s="167"/>
-      <c r="L68" s="167"/>
-      <c r="M68" s="167"/>
-      <c r="N68" s="165"/>
-      <c r="O68" s="171" t="s">
+      <c r="G68" s="209" t="s">
+        <v>345</v>
+      </c>
+      <c r="H68" s="210" t="s">
+        <v>508</v>
+      </c>
+      <c r="I68" s="210" t="s">
+        <v>509</v>
+      </c>
+      <c r="J68" s="212">
+        <v>4</v>
+      </c>
+      <c r="K68" s="211"/>
+      <c r="M68" s="214" t="s">
+        <v>524</v>
+      </c>
+      <c r="N68" s="211"/>
+      <c r="O68" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="P68" s="167"/>
-      <c r="Q68" s="167"/>
-      <c r="R68" s="167"/>
-      <c r="S68" s="167"/>
-      <c r="T68" s="167"/>
-      <c r="U68" s="167"/>
-      <c r="V68" s="167"/>
-      <c r="W68" s="167"/>
-      <c r="X68" s="167"/>
-      <c r="Y68" s="167"/>
-      <c r="Z68" s="167"/>
-      <c r="AA68" s="167"/>
-      <c r="AB68" s="167"/>
-    </row>
-    <row r="69" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P68" s="211"/>
+      <c r="Q68" s="211"/>
+      <c r="R68" s="211"/>
+      <c r="S68" s="211"/>
+      <c r="T68" s="211"/>
+      <c r="U68" s="211"/>
+      <c r="V68" s="211"/>
+      <c r="W68" s="211"/>
+      <c r="X68" s="211"/>
+      <c r="Y68" s="211"/>
+      <c r="Z68" s="211"/>
+      <c r="AA68" s="211"/>
+      <c r="AB68" s="211"/>
+      <c r="AC68" s="211"/>
+    </row>
+    <row r="69" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1">
       <c r="A69" s="164">
         <v>42736</v>
       </c>
@@ -7442,14 +7474,14 @@
       <c r="D69" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="E69" s="166" t="s">
-        <v>494</v>
+      <c r="E69" s="165" t="s">
+        <v>66</v>
       </c>
       <c r="F69" s="167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="165" t="s">
-        <v>503</v>
+        <v>218</v>
       </c>
       <c r="H69" s="165" t="s">
         <v>402</v>
@@ -7461,9 +7493,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="167"/>
-      <c r="L69" s="172" t="s">
-        <v>504</v>
-      </c>
+      <c r="L69" s="167"/>
       <c r="M69" s="167"/>
       <c r="N69" s="165"/>
       <c r="O69" s="171" t="s">
@@ -7483,7 +7513,7 @@
       <c r="AA69" s="167"/>
       <c r="AB69" s="167"/>
     </row>
-    <row r="70" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1">
       <c r="A70" s="164">
         <v>42736</v>
       </c>
@@ -7494,25 +7524,28 @@
       <c r="D70" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="E70" s="173" t="s">
-        <v>79</v>
+      <c r="E70" s="166" t="s">
+        <v>494</v>
       </c>
       <c r="F70" s="167">
         <v>2</v>
       </c>
       <c r="G70" s="165" t="s">
-        <v>218</v>
+        <v>503</v>
       </c>
       <c r="H70" s="165" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I70" s="165" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J70" s="168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" s="167"/>
+      <c r="L70" s="172" t="s">
+        <v>504</v>
+      </c>
       <c r="M70" s="167"/>
       <c r="N70" s="165"/>
       <c r="O70" s="171" t="s">
@@ -7532,7 +7565,7 @@
       <c r="AA70" s="167"/>
       <c r="AB70" s="167"/>
     </row>
-    <row r="71" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1">
       <c r="A71" s="164">
         <v>42736</v>
       </c>
@@ -7544,7 +7577,7 @@
         <v>501</v>
       </c>
       <c r="E71" s="173" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F71" s="167">
         <v>2</v>
@@ -7553,18 +7586,16 @@
         <v>218</v>
       </c>
       <c r="H71" s="165" t="s">
-        <v>505</v>
+        <v>403</v>
       </c>
       <c r="I71" s="165" t="s">
-        <v>506</v>
+        <v>401</v>
       </c>
       <c r="J71" s="168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71" s="167"/>
-      <c r="M71" s="166" t="s">
-        <v>507</v>
-      </c>
+      <c r="M71" s="167"/>
       <c r="N71" s="165"/>
       <c r="O71" s="171" t="s">
         <v>195</v>
@@ -7583,41 +7614,93 @@
       <c r="AA71" s="167"/>
       <c r="AB71" s="167"/>
     </row>
-    <row r="72" spans="1:29" s="217" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="216">
-        <v>42736</v>
-      </c>
-      <c r="C72" s="220" t="s">
+    <row r="72" spans="1:29" s="169" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A72" s="164">
+        <v>42736</v>
+      </c>
+      <c r="B72" s="164"/>
+      <c r="C72" s="165" t="s">
         <v>397</v>
       </c>
-      <c r="D72" s="220" t="s">
+      <c r="D72" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="E72" s="219" t="s">
+      <c r="E72" s="173" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="167">
+        <v>2</v>
+      </c>
+      <c r="G72" s="165" t="s">
+        <v>218</v>
+      </c>
+      <c r="H72" s="165" t="s">
+        <v>505</v>
+      </c>
+      <c r="I72" s="165" t="s">
+        <v>506</v>
+      </c>
+      <c r="J72" s="168">
+        <v>3</v>
+      </c>
+      <c r="K72" s="167"/>
+      <c r="M72" s="166" t="s">
+        <v>507</v>
+      </c>
+      <c r="N72" s="165"/>
+      <c r="O72" s="171" t="s">
+        <v>195</v>
+      </c>
+      <c r="P72" s="167"/>
+      <c r="Q72" s="167"/>
+      <c r="R72" s="167"/>
+      <c r="S72" s="167"/>
+      <c r="T72" s="167"/>
+      <c r="U72" s="167"/>
+      <c r="V72" s="167"/>
+      <c r="W72" s="167"/>
+      <c r="X72" s="167"/>
+      <c r="Y72" s="167"/>
+      <c r="Z72" s="167"/>
+      <c r="AA72" s="167"/>
+      <c r="AB72" s="167"/>
+    </row>
+    <row r="73" spans="1:29" s="217" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A73" s="216">
+        <v>42736</v>
+      </c>
+      <c r="C73" s="220" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" s="220" t="s">
+        <v>501</v>
+      </c>
+      <c r="E73" s="219" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="221">
+      <c r="F73" s="221">
         <v>2</v>
       </c>
-      <c r="G72" s="218" t="s">
+      <c r="G73" s="218" t="s">
         <v>218</v>
       </c>
-      <c r="H72" s="220" t="s">
+      <c r="H73" s="220" t="s">
         <v>508</v>
       </c>
-      <c r="I72" s="220" t="s">
+      <c r="I73" s="220" t="s">
         <v>509</v>
       </c>
-      <c r="J72" s="222">
+      <c r="J73" s="222">
         <v>4</v>
       </c>
-      <c r="N72" s="220"/>
-      <c r="O72" s="223" t="s">
+      <c r="N73" s="220"/>
+      <c r="O73" s="223" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:29" ht="13.75" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -7634,7 +7717,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.83203125" style="24" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="24" customWidth="1"/>
@@ -7646,7 +7729,7 @@
     <col min="8" max="257" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>221</v>
       </c>
@@ -7663,7 +7746,7 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="35.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -7684,7 +7767,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -7707,7 +7790,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="29">
         <v>42736</v>
       </c>
@@ -7726,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" customHeight="1">
       <c r="A5" s="29">
         <v>42736</v>
       </c>
@@ -7745,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="29">
         <v>42736</v>
       </c>
@@ -7764,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="29">
         <v>42736</v>
       </c>
@@ -7783,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="29">
         <v>42736</v>
       </c>
@@ -7802,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="29">
         <v>42736</v>
       </c>
@@ -7821,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="29">
         <v>42736</v>
       </c>
@@ -7840,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.25" customHeight="1">
       <c r="A11" s="29">
         <v>42736</v>
       </c>
@@ -7859,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.25" customHeight="1">
       <c r="A12" s="29">
         <v>42736</v>
       </c>
@@ -7878,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.25" customHeight="1">
       <c r="A13" s="29">
         <v>42736</v>
       </c>
@@ -7897,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.25" customHeight="1">
       <c r="A14" s="29">
         <v>42736</v>
       </c>
@@ -7916,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.25" customHeight="1">
       <c r="A15" s="29">
         <v>42736</v>
       </c>
@@ -7935,7 +8018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.25" customHeight="1">
       <c r="A16" s="29">
         <v>42736</v>
       </c>
@@ -7954,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.25" customHeight="1">
       <c r="A17" s="29">
         <v>42736</v>
       </c>
@@ -7973,7 +8056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A18" s="146">
         <v>42736</v>
       </c>
@@ -7994,7 +8077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A19" s="146">
         <v>42736</v>
       </c>
@@ -8015,7 +8098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A20" s="146">
         <v>42736</v>
       </c>
@@ -8036,7 +8119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A21" s="146">
         <v>42736</v>
       </c>
@@ -8057,7 +8140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A22" s="146">
         <v>42736</v>
       </c>
@@ -8078,7 +8161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A23" s="146">
         <v>42736</v>
       </c>
@@ -8097,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A24" s="146">
         <v>42736</v>
       </c>
@@ -8116,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A25" s="146">
         <v>42736</v>
       </c>
@@ -8135,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A26" s="146">
         <v>42736</v>
       </c>
@@ -8154,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A27" s="146">
         <v>42736</v>
       </c>
@@ -8173,7 +8256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="13.25" customHeight="1">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="19"/>
@@ -8182,7 +8265,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13.25" customHeight="1">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="19"/>
@@ -8191,7 +8274,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="13.25" customHeight="1">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="19"/>
@@ -8200,7 +8283,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="13.25" customHeight="1">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="19"/>
@@ -8226,7 +8309,7 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="30" customWidth="1"/>
@@ -8239,7 +8322,7 @@
     <col min="13" max="257" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>225</v>
       </c>
@@ -8261,7 +8344,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="40" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -8287,7 +8370,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -8315,7 +8398,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -8339,7 +8422,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -8363,7 +8446,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -8387,7 +8470,7 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="140" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="137">
         <v>42736</v>
       </c>
@@ -8413,7 +8496,7 @@
       <c r="K7" s="144"/>
       <c r="L7" s="144"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -8437,7 +8520,7 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -8461,7 +8544,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -8485,7 +8568,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -8526,7 +8609,7 @@
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.83203125" style="33" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="33" customWidth="1"/>
@@ -8538,7 +8621,7 @@
     <col min="8" max="257" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>229</v>
       </c>
@@ -8555,7 +8638,7 @@
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="1:7" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="35.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -8576,7 +8659,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -8599,7 +8682,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="29">
         <v>42736</v>
       </c>
@@ -8618,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" customHeight="1">
       <c r="A5" s="29">
         <v>42736</v>
       </c>
@@ -8637,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="29">
         <v>42736</v>
       </c>
@@ -8656,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="29">
         <v>42736</v>
       </c>
@@ -8675,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="29">
         <v>42736</v>
       </c>
@@ -8694,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="29">
         <v>42736</v>
       </c>
@@ -8713,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="29">
         <v>42736</v>
       </c>
@@ -8732,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.25" customHeight="1">
       <c r="A11" s="29">
         <v>42736</v>
       </c>
@@ -8751,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.25" customHeight="1">
       <c r="A12" s="29">
         <v>42736</v>
       </c>
@@ -8770,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.25" customHeight="1">
       <c r="A13" s="29">
         <v>42736</v>
       </c>
@@ -8789,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.25" customHeight="1">
       <c r="A14" s="29">
         <v>42736</v>
       </c>
@@ -8808,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.25" customHeight="1">
       <c r="A15" s="29">
         <v>42736</v>
       </c>
@@ -8827,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.25" customHeight="1">
       <c r="A16" s="29">
         <v>42736</v>
       </c>
@@ -8846,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
       <c r="A17" s="29">
         <v>42736</v>
       </c>
@@ -8865,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="146">
         <v>42736</v>
       </c>
@@ -8884,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="146">
         <v>42736</v>
       </c>
@@ -8905,7 +8988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="146">
         <v>42736</v>
       </c>
@@ -8926,7 +9009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="146">
         <v>42736</v>
       </c>
@@ -8947,7 +9030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="146">
         <v>42736</v>
       </c>
@@ -8968,7 +9051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="140" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="146">
         <v>42736</v>
       </c>
@@ -8989,7 +9072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.5" customHeight="1">
       <c r="A24" s="29">
         <v>42736</v>
       </c>
@@ -9008,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.5" customHeight="1">
       <c r="A25" s="29">
         <v>42736</v>
       </c>
@@ -9027,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16.5" customHeight="1">
       <c r="A26" s="29">
         <v>42736</v>
       </c>
@@ -9046,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16.5" customHeight="1">
       <c r="A27" s="29">
         <v>42736</v>
       </c>
@@ -9082,7 +9165,7 @@
       <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.5" style="37" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="37" customWidth="1"/>
@@ -9095,7 +9178,7 @@
     <col min="12" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>230</v>
       </c>
@@ -9116,7 +9199,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="46.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="46.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -9141,7 +9224,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -9166,7 +9249,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16.5" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -9189,7 +9272,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16.5" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -9212,7 +9295,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16.5" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -9235,7 +9318,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="140" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="137">
         <v>42736</v>
       </c>
@@ -9258,7 +9341,7 @@
       <c r="K7" s="139"/>
       <c r="L7" s="139"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="16.5" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -9281,7 +9364,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -9304,7 +9387,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -9327,7 +9410,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -9350,7 +9433,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="16.5" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -9373,7 +9456,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="23" spans="2:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="13.25" customHeight="1">
       <c r="B23" s="8"/>
     </row>
   </sheetData>
@@ -9389,11 +9472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.1640625" style="38" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" style="38" customWidth="1"/>
@@ -9406,7 +9489,7 @@
     <col min="12" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>231</v>
       </c>
@@ -9427,7 +9510,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="35.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -9450,7 +9533,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -9475,7 +9558,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -9500,7 +9583,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -9525,7 +9608,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="13.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -9538,7 +9621,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="19" spans="5:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:5" ht="13.25" customHeight="1">
       <c r="E19" s="42"/>
     </row>
   </sheetData>
@@ -9559,10 +9642,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30.83203125" style="39" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="39" customWidth="1"/>
@@ -9572,7 +9655,7 @@
     <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>239</v>
       </c>
@@ -9587,7 +9670,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="46.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="46.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -9604,7 +9687,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -9621,7 +9704,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -9636,7 +9719,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -9651,7 +9734,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -9666,7 +9749,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -9681,7 +9764,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -9696,7 +9779,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -9711,7 +9794,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -9726,7 +9809,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -9752,13 +9835,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" style="40" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="40" customWidth="1"/>
@@ -9769,7 +9852,7 @@
     <col min="12" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>245</v>
       </c>
@@ -9790,7 +9873,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="65" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -9815,7 +9898,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -9840,7 +9923,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -9863,7 +9946,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -9886,7 +9969,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="13.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -9909,7 +9992,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -9932,7 +10015,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -9955,7 +10038,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -9978,7 +10061,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -10001,7 +10084,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -10024,7 +10107,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -10047,7 +10130,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -10070,7 +10153,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -10093,7 +10176,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -10116,7 +10199,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="14" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -10139,39 +10222,39 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
+    <row r="17" spans="1:11" s="232" customFormat="1" ht="14" customHeight="1">
+      <c r="A17" s="226">
+        <v>42737</v>
+      </c>
+      <c r="B17" s="234"/>
+      <c r="C17" s="228" t="s">
         <v>396</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="228" t="s">
+        <v>552</v>
+      </c>
+      <c r="E17" s="232" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="228" t="s">
         <v>244</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="234"/>
+      <c r="H17" s="234"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="234"/>
+    </row>
+    <row r="18" spans="1:11" ht="14" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
-        <v>275</v>
+        <v>396</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>276</v>
+        <v>474</v>
       </c>
       <c r="E18" t="s">
         <v>271</v>
@@ -10185,16 +10268,16 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="14" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
         <v>275</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" t="s">
         <v>271</v>
@@ -10202,17 +10285,22 @@
       <c r="F19" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="13.25" customHeight="1">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="56" t="s">
         <v>275</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E20" t="s">
         <v>271</v>
@@ -10220,13 +10308,8 @@
       <c r="F20" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:11" ht="13.25" customHeight="1">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -10234,8 +10317,8 @@
       <c r="C21" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>366</v>
+      <c r="D21" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="E21" t="s">
         <v>271</v>
@@ -10243,40 +10326,40 @@
       <c r="F21" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="174">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="182" t="s">
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.25" customHeight="1">
+      <c r="A22" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="E22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A23" s="174">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="181"/>
+      <c r="C23" s="182" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="182" t="s">
         <v>474</v>
-      </c>
-      <c r="E22" s="179" t="s">
-        <v>271</v>
-      </c>
-      <c r="F22" s="182" t="s">
-        <v>244</v>
-      </c>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-    </row>
-    <row r="23" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="174">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="174"/>
-      <c r="C23" s="183" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" s="175" t="s">
-        <v>296</v>
       </c>
       <c r="E23" s="179" t="s">
         <v>271</v>
@@ -10290,7 +10373,7 @@
       <c r="J23" s="181"/>
       <c r="K23" s="181"/>
     </row>
-    <row r="24" spans="1:11" s="179" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1">
       <c r="A24" s="174">
         <v>42736</v>
       </c>
@@ -10299,7 +10382,7 @@
         <v>285</v>
       </c>
       <c r="D24" s="175" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E24" s="179" t="s">
         <v>271</v>
@@ -10313,7 +10396,7 @@
       <c r="J24" s="181"/>
       <c r="K24" s="181"/>
     </row>
-    <row r="25" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="179" customFormat="1" ht="13" customHeight="1">
       <c r="A25" s="174">
         <v>42736</v>
       </c>
@@ -10322,7 +10405,7 @@
         <v>285</v>
       </c>
       <c r="D25" s="175" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E25" s="179" t="s">
         <v>271</v>
@@ -10336,16 +10419,16 @@
       <c r="J25" s="181"/>
       <c r="K25" s="181"/>
     </row>
-    <row r="26" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1">
       <c r="A26" s="174">
         <v>42736</v>
       </c>
-      <c r="B26" s="178"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="183" t="s">
         <v>285</v>
       </c>
       <c r="D26" s="175" t="s">
-        <v>454</v>
+        <v>311</v>
       </c>
       <c r="E26" s="179" t="s">
         <v>271</v>
@@ -10359,16 +10442,16 @@
       <c r="J26" s="181"/>
       <c r="K26" s="181"/>
     </row>
-    <row r="27" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1">
       <c r="A27" s="174">
         <v>42736</v>
       </c>
-      <c r="B27" s="181"/>
-      <c r="C27" s="184" t="s">
+      <c r="B27" s="178"/>
+      <c r="C27" s="183" t="s">
         <v>285</v>
       </c>
-      <c r="D27" s="182" t="s">
-        <v>474</v>
+      <c r="D27" s="175" t="s">
+        <v>454</v>
       </c>
       <c r="E27" s="179" t="s">
         <v>271</v>
@@ -10382,16 +10465,16 @@
       <c r="J27" s="181"/>
       <c r="K27" s="181"/>
     </row>
-    <row r="28" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="179" customFormat="1" ht="13.25" customHeight="1">
       <c r="A28" s="174">
         <v>42736</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="180" t="s">
-        <v>489</v>
+      <c r="D28" s="182" t="s">
+        <v>474</v>
       </c>
       <c r="E28" s="179" t="s">
         <v>271</v>
@@ -10399,13 +10482,13 @@
       <c r="F28" s="182" t="s">
         <v>244</v>
       </c>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
-    </row>
-    <row r="29" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+    </row>
+    <row r="29" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A29" s="174">
         <v>42736</v>
       </c>
@@ -10413,8 +10496,8 @@
       <c r="C29" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="175" t="s">
-        <v>478</v>
+      <c r="D29" s="180" t="s">
+        <v>489</v>
       </c>
       <c r="E29" s="179" t="s">
         <v>271</v>
@@ -10428,16 +10511,16 @@
       <c r="J29" s="178"/>
       <c r="K29" s="178"/>
     </row>
-    <row r="30" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A30" s="174">
         <v>42736</v>
       </c>
       <c r="B30" s="178"/>
-      <c r="C30" s="175" t="s">
-        <v>329</v>
+      <c r="C30" s="184" t="s">
+        <v>285</v>
       </c>
       <c r="D30" s="175" t="s">
-        <v>332</v>
+        <v>478</v>
       </c>
       <c r="E30" s="179" t="s">
         <v>271</v>
@@ -10445,22 +10528,22 @@
       <c r="F30" s="182" t="s">
         <v>244</v>
       </c>
-      <c r="G30" s="182"/>
+      <c r="G30" s="178"/>
       <c r="H30" s="178"/>
       <c r="I30" s="178"/>
       <c r="J30" s="178"/>
       <c r="K30" s="178"/>
     </row>
-    <row r="31" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A31" s="174">
         <v>42736</v>
       </c>
-      <c r="B31" s="174"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="175" t="s">
         <v>329</v>
       </c>
       <c r="D31" s="175" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E31" s="179" t="s">
         <v>271</v>
@@ -10474,7 +10557,7 @@
       <c r="J31" s="178"/>
       <c r="K31" s="178"/>
     </row>
-    <row r="32" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A32" s="174">
         <v>42736</v>
       </c>
@@ -10483,7 +10566,7 @@
         <v>329</v>
       </c>
       <c r="D32" s="175" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E32" s="179" t="s">
         <v>271</v>
@@ -10497,7 +10580,7 @@
       <c r="J32" s="178"/>
       <c r="K32" s="178"/>
     </row>
-    <row r="33" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A33" s="174">
         <v>42736</v>
       </c>
@@ -10506,7 +10589,7 @@
         <v>329</v>
       </c>
       <c r="D33" s="175" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E33" s="179" t="s">
         <v>271</v>
@@ -10520,7 +10603,7 @@
       <c r="J33" s="178"/>
       <c r="K33" s="178"/>
     </row>
-    <row r="34" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A34" s="174">
         <v>42736</v>
       </c>
@@ -10529,7 +10612,7 @@
         <v>329</v>
       </c>
       <c r="D34" s="175" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E34" s="179" t="s">
         <v>271</v>
@@ -10543,7 +10626,7 @@
       <c r="J34" s="178"/>
       <c r="K34" s="178"/>
     </row>
-    <row r="35" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A35" s="174">
         <v>42736</v>
       </c>
@@ -10552,7 +10635,7 @@
         <v>329</v>
       </c>
       <c r="D35" s="175" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E35" s="179" t="s">
         <v>271</v>
@@ -10566,7 +10649,7 @@
       <c r="J35" s="178"/>
       <c r="K35" s="178"/>
     </row>
-    <row r="36" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A36" s="174">
         <v>42736</v>
       </c>
@@ -10575,7 +10658,7 @@
         <v>329</v>
       </c>
       <c r="D36" s="175" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E36" s="179" t="s">
         <v>271</v>
@@ -10589,7 +10672,7 @@
       <c r="J36" s="178"/>
       <c r="K36" s="178"/>
     </row>
-    <row r="37" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A37" s="174">
         <v>42736</v>
       </c>
@@ -10598,7 +10681,7 @@
         <v>329</v>
       </c>
       <c r="D37" s="175" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E37" s="179" t="s">
         <v>271</v>
@@ -10612,7 +10695,7 @@
       <c r="J37" s="178"/>
       <c r="K37" s="178"/>
     </row>
-    <row r="38" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A38" s="174">
         <v>42736</v>
       </c>
@@ -10621,7 +10704,7 @@
         <v>329</v>
       </c>
       <c r="D38" s="175" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E38" s="179" t="s">
         <v>271</v>
@@ -10635,7 +10718,7 @@
       <c r="J38" s="178"/>
       <c r="K38" s="178"/>
     </row>
-    <row r="39" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A39" s="174">
         <v>42736</v>
       </c>
@@ -10644,7 +10727,7 @@
         <v>329</v>
       </c>
       <c r="D39" s="175" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E39" s="179" t="s">
         <v>271</v>
@@ -10658,7 +10741,7 @@
       <c r="J39" s="178"/>
       <c r="K39" s="178"/>
     </row>
-    <row r="40" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A40" s="174">
         <v>42736</v>
       </c>
@@ -10666,8 +10749,8 @@
       <c r="C40" s="175" t="s">
         <v>329</v>
       </c>
-      <c r="D40" s="182" t="s">
-        <v>474</v>
+      <c r="D40" s="175" t="s">
+        <v>354</v>
       </c>
       <c r="E40" s="179" t="s">
         <v>271</v>
@@ -10681,16 +10764,16 @@
       <c r="J40" s="178"/>
       <c r="K40" s="178"/>
     </row>
-    <row r="41" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A41" s="174">
         <v>42736</v>
       </c>
       <c r="B41" s="174"/>
       <c r="C41" s="175" t="s">
-        <v>373</v>
-      </c>
-      <c r="D41" s="175" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="D41" s="182" t="s">
+        <v>474</v>
       </c>
       <c r="E41" s="179" t="s">
         <v>271</v>
@@ -10704,7 +10787,7 @@
       <c r="J41" s="178"/>
       <c r="K41" s="178"/>
     </row>
-    <row r="42" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A42" s="174">
         <v>42736</v>
       </c>
@@ -10713,7 +10796,7 @@
         <v>373</v>
       </c>
       <c r="D42" s="175" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E42" s="179" t="s">
         <v>271</v>
@@ -10727,7 +10810,7 @@
       <c r="J42" s="178"/>
       <c r="K42" s="178"/>
     </row>
-    <row r="43" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A43" s="174">
         <v>42736</v>
       </c>
@@ -10736,7 +10819,7 @@
         <v>373</v>
       </c>
       <c r="D43" s="175" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E43" s="179" t="s">
         <v>271</v>
@@ -10750,7 +10833,7 @@
       <c r="J43" s="178"/>
       <c r="K43" s="178"/>
     </row>
-    <row r="44" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A44" s="174">
         <v>42736</v>
       </c>
@@ -10759,7 +10842,7 @@
         <v>373</v>
       </c>
       <c r="D44" s="175" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="E44" s="179" t="s">
         <v>271</v>
@@ -10773,7 +10856,7 @@
       <c r="J44" s="178"/>
       <c r="K44" s="178"/>
     </row>
-    <row r="45" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A45" s="174">
         <v>42736</v>
       </c>
@@ -10781,8 +10864,8 @@
       <c r="C45" s="175" t="s">
         <v>373</v>
       </c>
-      <c r="D45" s="182" t="s">
-        <v>474</v>
+      <c r="D45" s="175" t="s">
+        <v>387</v>
       </c>
       <c r="E45" s="179" t="s">
         <v>271</v>
@@ -10796,16 +10879,16 @@
       <c r="J45" s="178"/>
       <c r="K45" s="178"/>
     </row>
-    <row r="46" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A46" s="174">
         <v>42736</v>
       </c>
       <c r="B46" s="174"/>
-      <c r="C46" s="182" t="s">
-        <v>392</v>
+      <c r="C46" s="175" t="s">
+        <v>373</v>
       </c>
       <c r="D46" s="182" t="s">
-        <v>66</v>
+        <v>474</v>
       </c>
       <c r="E46" s="179" t="s">
         <v>271</v>
@@ -10819,7 +10902,7 @@
       <c r="J46" s="178"/>
       <c r="K46" s="178"/>
     </row>
-    <row r="47" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A47" s="174">
         <v>42736</v>
       </c>
@@ -10828,7 +10911,7 @@
         <v>392</v>
       </c>
       <c r="D47" s="182" t="s">
-        <v>474</v>
+        <v>66</v>
       </c>
       <c r="E47" s="179" t="s">
         <v>271</v>
@@ -10842,30 +10925,30 @@
       <c r="J47" s="178"/>
       <c r="K47" s="178"/>
     </row>
-    <row r="48" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" t="s">
+    <row r="48" spans="1:11" s="179" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A48" s="174">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="174"/>
+      <c r="C48" s="182" t="s">
+        <v>392</v>
+      </c>
+      <c r="D48" s="182" t="s">
+        <v>474</v>
+      </c>
+      <c r="E48" s="179" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="182" t="s">
         <v>244</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G48" s="182"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="178"/>
+      <c r="K48" s="178"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.75" customHeight="1">
       <c r="A49" s="10">
         <v>42736</v>
       </c>
@@ -10873,8 +10956,8 @@
       <c r="C49" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D49" s="56" t="s">
-        <v>333</v>
+      <c r="D49" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="E49" t="s">
         <v>271</v>
@@ -10888,7 +10971,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" ht="13.75" customHeight="1">
       <c r="A50" s="10">
         <v>42736</v>
       </c>
@@ -10897,7 +10980,7 @@
         <v>397</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E50" t="s">
         <v>271</v>
@@ -10911,30 +10994,30 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="197">
-        <v>42736</v>
-      </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="198" t="s">
+    <row r="51" spans="1:11" ht="13.75" customHeight="1">
+      <c r="A51" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D51" s="198" t="s">
-        <v>552</v>
-      </c>
-      <c r="E51" s="201" t="s">
+      <c r="D51" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" t="s">
         <v>271</v>
       </c>
-      <c r="F51" s="198" t="s">
+      <c r="F51" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G51" s="198"/>
-      <c r="H51" s="200"/>
-      <c r="I51" s="200"/>
-      <c r="J51" s="200"/>
-      <c r="K51" s="200"/>
-    </row>
-    <row r="52" spans="1:11" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G51" s="8"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A52" s="197">
         <v>42736</v>
       </c>
@@ -10943,7 +11026,7 @@
         <v>397</v>
       </c>
       <c r="D52" s="198" t="s">
-        <v>75</v>
+        <v>552</v>
       </c>
       <c r="E52" s="201" t="s">
         <v>271</v>
@@ -10957,7 +11040,7 @@
       <c r="J52" s="200"/>
       <c r="K52" s="200"/>
     </row>
-    <row r="53" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A53" s="197">
         <v>42736</v>
       </c>
@@ -10966,7 +11049,7 @@
         <v>397</v>
       </c>
       <c r="D53" s="198" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E53" s="201" t="s">
         <v>271</v>
@@ -10974,8 +11057,13 @@
       <c r="F53" s="198" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G53" s="198"/>
+      <c r="H53" s="200"/>
+      <c r="I53" s="200"/>
+      <c r="J53" s="200"/>
+      <c r="K53" s="200"/>
+    </row>
+    <row r="54" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A54" s="197">
         <v>42736</v>
       </c>
@@ -10984,7 +11072,7 @@
         <v>397</v>
       </c>
       <c r="D54" s="198" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E54" s="201" t="s">
         <v>271</v>
@@ -10993,7 +11081,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A55" s="197">
         <v>42736</v>
       </c>
@@ -11002,7 +11090,7 @@
         <v>397</v>
       </c>
       <c r="D55" s="198" t="s">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="E55" s="201" t="s">
         <v>271</v>
@@ -11011,7 +11099,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A56" s="197">
         <v>42736</v>
       </c>
@@ -11020,7 +11108,7 @@
         <v>397</v>
       </c>
       <c r="D56" s="198" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="E56" s="201" t="s">
         <v>271</v>
@@ -11029,53 +11117,48 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="8" t="s">
+    <row r="57" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A57" s="197">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="197"/>
+      <c r="C57" s="198" t="s">
         <v>397</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="201" t="s">
+        <v>271</v>
+      </c>
+      <c r="F57" s="198" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="13.75" customHeight="1">
+      <c r="A58" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>271</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="164">
-        <v>42736</v>
-      </c>
-      <c r="B58" s="164"/>
-      <c r="C58" s="165" t="s">
-        <v>397</v>
-      </c>
-      <c r="D58" s="166" t="s">
-        <v>494</v>
-      </c>
-      <c r="E58" s="169" t="s">
-        <v>271</v>
-      </c>
-      <c r="F58" s="165" t="s">
-        <v>244</v>
-      </c>
-      <c r="G58" s="165"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
-    </row>
-    <row r="59" spans="1:11" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G58" s="8"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11" s="169" customFormat="1" ht="13.75" customHeight="1">
       <c r="A59" s="164">
         <v>42736</v>
       </c>
@@ -11083,8 +11166,8 @@
       <c r="C59" s="165" t="s">
         <v>397</v>
       </c>
-      <c r="D59" s="173" t="s">
-        <v>79</v>
+      <c r="D59" s="166" t="s">
+        <v>494</v>
       </c>
       <c r="E59" s="169" t="s">
         <v>271</v>
@@ -11092,8 +11175,13 @@
       <c r="F59" s="165" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G59" s="165"/>
+      <c r="H59" s="167"/>
+      <c r="I59" s="167"/>
+      <c r="J59" s="167"/>
+      <c r="K59" s="167"/>
+    </row>
+    <row r="60" spans="1:11" s="169" customFormat="1" ht="13.75" customHeight="1">
       <c r="A60" s="164">
         <v>42736</v>
       </c>
@@ -11102,7 +11190,7 @@
         <v>397</v>
       </c>
       <c r="D60" s="173" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E60" s="169" t="s">
         <v>271</v>
@@ -11111,43 +11199,43 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="217" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="216">
-        <v>42736</v>
-      </c>
-      <c r="B61" s="216"/>
-      <c r="C61" s="220" t="s">
+    <row r="61" spans="1:11" s="169" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A61" s="164">
+        <v>42736</v>
+      </c>
+      <c r="B61" s="164"/>
+      <c r="C61" s="165" t="s">
         <v>397</v>
       </c>
-      <c r="D61" s="219" t="s">
+      <c r="D61" s="173" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="169" t="s">
+        <v>271</v>
+      </c>
+      <c r="F61" s="165" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="217" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A62" s="216">
+        <v>42736</v>
+      </c>
+      <c r="B62" s="216"/>
+      <c r="C62" s="220" t="s">
+        <v>397</v>
+      </c>
+      <c r="D62" s="219" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="217" t="s">
+      <c r="E62" s="217" t="s">
         <v>271</v>
       </c>
-      <c r="F61" s="220" t="s">
+      <c r="F62" s="220" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="197">
-        <v>42736</v>
-      </c>
-      <c r="B62" s="197"/>
-      <c r="C62" s="198" t="s">
-        <v>397</v>
-      </c>
-      <c r="D62" s="199" t="s">
-        <v>532</v>
-      </c>
-      <c r="E62" s="201" t="s">
-        <v>271</v>
-      </c>
-      <c r="F62" s="198" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A63" s="197">
         <v>42736</v>
       </c>
@@ -11156,7 +11244,7 @@
         <v>397</v>
       </c>
       <c r="D63" s="199" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E63" s="201" t="s">
         <v>271</v>
@@ -11165,7 +11253,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A64" s="197">
         <v>42736</v>
       </c>
@@ -11174,7 +11262,7 @@
         <v>397</v>
       </c>
       <c r="D64" s="199" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E64" s="201" t="s">
         <v>271</v>
@@ -11183,7 +11271,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A65" s="197">
         <v>42736</v>
       </c>
@@ -11192,7 +11280,7 @@
         <v>397</v>
       </c>
       <c r="D65" s="199" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E65" s="201" t="s">
         <v>271</v>
@@ -11201,7 +11289,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A66" s="197">
         <v>42736</v>
       </c>
@@ -11210,7 +11298,7 @@
         <v>397</v>
       </c>
       <c r="D66" s="199" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E66" s="201" t="s">
         <v>271</v>
@@ -11219,7 +11307,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A67" s="197">
         <v>42736</v>
       </c>
@@ -11228,7 +11316,7 @@
         <v>397</v>
       </c>
       <c r="D67" s="199" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E67" s="201" t="s">
         <v>271</v>
@@ -11237,7 +11325,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A68" s="197">
         <v>42736</v>
       </c>
@@ -11246,7 +11334,7 @@
         <v>397</v>
       </c>
       <c r="D68" s="199" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E68" s="201" t="s">
         <v>271</v>
@@ -11255,7 +11343,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A69" s="197">
         <v>42736</v>
       </c>
@@ -11264,7 +11352,7 @@
         <v>397</v>
       </c>
       <c r="D69" s="199" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E69" s="201" t="s">
         <v>271</v>
@@ -11273,7 +11361,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A70" s="197">
         <v>42736</v>
       </c>
@@ -11282,7 +11370,7 @@
         <v>397</v>
       </c>
       <c r="D70" s="199" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E70" s="201" t="s">
         <v>271</v>
@@ -11291,7 +11379,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A71" s="197">
         <v>42736</v>
       </c>
@@ -11300,7 +11388,7 @@
         <v>397</v>
       </c>
       <c r="D71" s="199" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E71" s="201" t="s">
         <v>271</v>
@@ -11309,30 +11397,25 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="164">
-        <v>42736</v>
-      </c>
-      <c r="B72" s="164"/>
-      <c r="C72" s="165" t="s">
+    <row r="72" spans="1:11" s="201" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A72" s="197">
+        <v>42736</v>
+      </c>
+      <c r="B72" s="197"/>
+      <c r="C72" s="198" t="s">
         <v>397</v>
       </c>
-      <c r="D72" s="166" t="s">
-        <v>520</v>
-      </c>
-      <c r="E72" s="169" t="s">
+      <c r="D72" s="199" t="s">
+        <v>550</v>
+      </c>
+      <c r="E72" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="F72" s="165" t="s">
+      <c r="F72" s="198" t="s">
         <v>244</v>
       </c>
-      <c r="G72" s="165"/>
-      <c r="H72" s="167"/>
-      <c r="I72" s="167"/>
-      <c r="J72" s="167"/>
-      <c r="K72" s="167"/>
-    </row>
-    <row r="73" spans="1:11" s="169" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:11" s="169" customFormat="1" ht="13.75" customHeight="1">
       <c r="A73" s="164">
         <v>42736</v>
       </c>
@@ -11341,7 +11424,7 @@
         <v>397</v>
       </c>
       <c r="D73" s="166" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="E73" s="169" t="s">
         <v>271</v>
@@ -11355,7 +11438,31 @@
       <c r="J73" s="167"/>
       <c r="K73" s="167"/>
     </row>
+    <row r="74" spans="1:11" s="169" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A74" s="164">
+        <v>42736</v>
+      </c>
+      <c r="B74" s="164"/>
+      <c r="C74" s="165" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" s="166" t="s">
+        <v>478</v>
+      </c>
+      <c r="E74" s="169" t="s">
+        <v>271</v>
+      </c>
+      <c r="F74" s="165" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" s="165"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -11372,12 +11479,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="4" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="43" t="s">
         <v>253</v>
       </c>
@@ -11391,7 +11498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="47" t="s">
         <v>254</v>
       </c>
@@ -11405,7 +11512,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="48" t="s">
         <v>39</v>
       </c>
@@ -11419,7 +11526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="51" t="s">
         <v>396</v>
       </c>
@@ -11433,7 +11540,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="51" t="s">
         <v>396</v>
       </c>
@@ -11447,7 +11554,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="51" t="s">
         <v>396</v>
       </c>
@@ -11461,7 +11568,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="51" t="s">
         <v>396</v>
       </c>
@@ -11488,7 +11595,7 @@
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.33203125" style="41" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="41" customWidth="1"/>
@@ -11499,7 +11606,7 @@
     <col min="12" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>248</v>
       </c>
@@ -11520,7 +11627,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="65" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -11545,7 +11652,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -11570,7 +11677,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -11593,7 +11700,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -11616,7 +11723,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="13.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -11639,7 +11746,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -11662,7 +11769,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -11685,7 +11792,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" s="89" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" s="89" customFormat="1" ht="13.75" customHeight="1">
       <c r="A9" s="91">
         <v>42736</v>
       </c>
@@ -11708,7 +11815,7 @@
       <c r="J9" s="94"/>
       <c r="K9" s="94"/>
     </row>
-    <row r="10" spans="1:11" s="89" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="89" customFormat="1" ht="13.75" customHeight="1">
       <c r="A10" s="91">
         <v>42736</v>
       </c>
@@ -11731,7 +11838,7 @@
       <c r="J10" s="94"/>
       <c r="K10" s="94"/>
     </row>
-    <row r="11" spans="1:11" s="89" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="89" customFormat="1" ht="13.75" customHeight="1">
       <c r="A11" s="91">
         <v>42736</v>
       </c>
@@ -11754,7 +11861,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="94"/>
     </row>
-    <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="14" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -11777,7 +11884,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="14" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -11800,7 +11907,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="14" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -11823,7 +11930,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="14" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -11846,7 +11953,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="14" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -11869,7 +11976,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="13.25" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -11892,7 +11999,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="13.75" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -11915,7 +12022,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="13.75" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -11938,7 +12045,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" s="132" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" s="132" customFormat="1" ht="13.75" customHeight="1">
       <c r="A20" s="131">
         <v>42736</v>
       </c>
@@ -11978,7 +12085,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="18" style="12" customWidth="1"/>
@@ -11993,7 +12100,7 @@
     <col min="15" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -12017,7 +12124,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="68.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -12051,7 +12158,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -12085,7 +12192,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -12115,7 +12222,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="12.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -12143,7 +12250,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -12171,7 +12278,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -12199,7 +12306,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="12.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -12227,7 +12334,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -12255,7 +12362,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -12303,7 +12410,7 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.5" style="42" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="42" customWidth="1"/>
@@ -12314,7 +12421,7 @@
     <col min="12" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>250</v>
       </c>
@@ -12335,7 +12442,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="65" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -12360,7 +12467,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -12385,7 +12492,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -12408,7 +12515,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -12431,7 +12538,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="14" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -12454,7 +12561,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -12477,7 +12584,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -12500,7 +12607,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -12523,7 +12630,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -12546,7 +12653,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -12569,7 +12676,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -12592,7 +12699,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -12615,7 +12722,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -12638,7 +12745,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" s="132" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="132" customFormat="1" ht="13.75" customHeight="1">
       <c r="A15" s="131">
         <v>42736</v>
       </c>
@@ -12674,11 +12781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView showGridLines="0" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="14" customWidth="1"/>
@@ -12694,7 +12801,7 @@
     <col min="13" max="256" width="8.83203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -12721,7 +12828,7 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:256" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:256" ht="90.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -12764,7 +12871,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:256" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -12807,7 +12914,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:256" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -12838,7 +12945,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:256" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -12869,7 +12976,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:256" ht="13.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -12900,7 +13007,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:256" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -12931,7 +13038,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:256" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -12962,7 +13069,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:256" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -12993,7 +13100,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:256" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -13024,7 +13131,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:256" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -13057,7 +13164,28 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="13" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:256" ht="13.25" customHeight="1">
+      <c r="A12" s="10">
+        <v>42737</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" s="233" t="s">
+        <v>552</v>
+      </c>
+      <c r="E12" s="225" t="s">
+        <v>564</v>
+      </c>
+      <c r="G12" s="225" t="s">
+        <v>429</v>
+      </c>
+      <c r="H12" s="225"/>
+      <c r="J12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="13.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -13090,7 +13218,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:256" ht="13.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -13121,7 +13249,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:256" ht="13.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -13152,7 +13280,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:256" ht="13.75" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -13422,7 +13550,7 @@
       <c r="IU16" s="42"/>
       <c r="IV16" s="42"/>
     </row>
-    <row r="17" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:256" ht="13.75" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -13455,7 +13583,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A18" s="174">
         <v>42736</v>
       </c>
@@ -13725,7 +13853,7 @@
       <c r="IU18" s="181"/>
       <c r="IV18" s="181"/>
     </row>
-    <row r="19" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A19" s="174">
         <v>42736</v>
       </c>
@@ -13995,7 +14123,7 @@
       <c r="IU19" s="181"/>
       <c r="IV19" s="181"/>
     </row>
-    <row r="20" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1">
       <c r="A20" s="174">
         <v>42736</v>
       </c>
@@ -14265,7 +14393,7 @@
       <c r="IU20" s="181"/>
       <c r="IV20" s="181"/>
     </row>
-    <row r="21" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="174">
         <v>42736</v>
       </c>
@@ -14535,7 +14663,7 @@
       <c r="IU21" s="181"/>
       <c r="IV21" s="181"/>
     </row>
-    <row r="22" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1">
       <c r="A22" s="174">
         <v>42736</v>
       </c>
@@ -14805,7 +14933,7 @@
       <c r="IU22" s="181"/>
       <c r="IV22" s="181"/>
     </row>
-    <row r="23" spans="1:256" s="179" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:256" s="179" customFormat="1" ht="13.25" customHeight="1">
       <c r="A23" s="174">
         <v>42736</v>
       </c>
@@ -15075,7 +15203,7 @@
       <c r="IU23" s="181"/>
       <c r="IV23" s="181"/>
     </row>
-    <row r="24" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="174">
         <v>42736</v>
       </c>
@@ -15345,7 +15473,7 @@
       <c r="IU24" s="181"/>
       <c r="IV24" s="181"/>
     </row>
-    <row r="25" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="174">
         <v>42736</v>
       </c>
@@ -15615,7 +15743,7 @@
       <c r="IU25" s="181"/>
       <c r="IV25" s="181"/>
     </row>
-    <row r="26" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1">
       <c r="A26" s="174">
         <v>42736</v>
       </c>
@@ -15887,7 +16015,7 @@
       <c r="IU26" s="181"/>
       <c r="IV26" s="181"/>
     </row>
-    <row r="27" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A27" s="174">
         <v>42736</v>
       </c>
@@ -16157,7 +16285,7 @@
       <c r="IU27" s="181"/>
       <c r="IV27" s="181"/>
     </row>
-    <row r="28" spans="1:256" s="179" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:256" s="179" customFormat="1" ht="13.25" customHeight="1">
       <c r="A28" s="174">
         <v>42736</v>
       </c>
@@ -16427,7 +16555,7 @@
       <c r="IU28" s="181"/>
       <c r="IV28" s="181"/>
     </row>
-    <row r="29" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1">
       <c r="A29" s="174">
         <v>42736</v>
       </c>
@@ -16699,7 +16827,7 @@
       <c r="IU29" s="181"/>
       <c r="IV29" s="181"/>
     </row>
-    <row r="30" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A30" s="174">
         <v>42736</v>
       </c>
@@ -16971,7 +17099,7 @@
       <c r="IU30" s="181"/>
       <c r="IV30" s="181"/>
     </row>
-    <row r="31" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A31" s="174">
         <v>42736</v>
       </c>
@@ -17241,7 +17369,7 @@
       <c r="IU31" s="181"/>
       <c r="IV31" s="181"/>
     </row>
-    <row r="32" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A32" s="174">
         <v>42736</v>
       </c>
@@ -17511,7 +17639,7 @@
       <c r="IU32" s="181"/>
       <c r="IV32" s="181"/>
     </row>
-    <row r="33" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A33" s="174">
         <v>42736</v>
       </c>
@@ -17781,7 +17909,7 @@
       <c r="IU33" s="181"/>
       <c r="IV33" s="181"/>
     </row>
-    <row r="34" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A34" s="174">
         <v>42736</v>
       </c>
@@ -18051,7 +18179,7 @@
       <c r="IU34" s="181"/>
       <c r="IV34" s="181"/>
     </row>
-    <row r="35" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A35" s="174">
         <v>42736</v>
       </c>
@@ -18321,7 +18449,7 @@
       <c r="IU35" s="181"/>
       <c r="IV35" s="181"/>
     </row>
-    <row r="36" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A36" s="174">
         <v>42736</v>
       </c>
@@ -18591,7 +18719,7 @@
       <c r="IU36" s="181"/>
       <c r="IV36" s="181"/>
     </row>
-    <row r="37" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A37" s="174">
         <v>42736</v>
       </c>
@@ -18861,7 +18989,7 @@
       <c r="IU37" s="181"/>
       <c r="IV37" s="181"/>
     </row>
-    <row r="38" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A38" s="174">
         <v>42736</v>
       </c>
@@ -19133,7 +19261,7 @@
       <c r="IU38" s="181"/>
       <c r="IV38" s="181"/>
     </row>
-    <row r="39" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1">
       <c r="A39" s="174">
         <v>42736</v>
       </c>
@@ -19405,7 +19533,7 @@
       <c r="IU39" s="181"/>
       <c r="IV39" s="181"/>
     </row>
-    <row r="40" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:256" s="179" customFormat="1" ht="14" customHeight="1">
       <c r="A40" s="174">
         <v>42736</v>
       </c>
@@ -19675,7 +19803,7 @@
       <c r="IU40" s="181"/>
       <c r="IV40" s="181"/>
     </row>
-    <row r="41" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A41" s="174">
         <v>42736</v>
       </c>
@@ -19945,7 +20073,7 @@
       <c r="IU41" s="181"/>
       <c r="IV41" s="181"/>
     </row>
-    <row r="42" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A42" s="174">
         <v>42736</v>
       </c>
@@ -20215,7 +20343,7 @@
       <c r="IU42" s="181"/>
       <c r="IV42" s="181"/>
     </row>
-    <row r="43" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A43" s="174">
         <v>42736</v>
       </c>
@@ -20485,7 +20613,7 @@
       <c r="IU43" s="181"/>
       <c r="IV43" s="181"/>
     </row>
-    <row r="44" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A44" s="174">
         <v>42736</v>
       </c>
@@ -20755,7 +20883,7 @@
       <c r="IU44" s="181"/>
       <c r="IV44" s="181"/>
     </row>
-    <row r="45" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A45" s="174">
         <v>42736</v>
       </c>
@@ -21025,7 +21153,7 @@
       <c r="IU45" s="181"/>
       <c r="IV45" s="181"/>
     </row>
-    <row r="46" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A46" s="174">
         <v>42736</v>
       </c>
@@ -21295,7 +21423,7 @@
       <c r="IU46" s="181"/>
       <c r="IV46" s="181"/>
     </row>
-    <row r="47" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A47" s="174">
         <v>42736</v>
       </c>
@@ -21567,7 +21695,7 @@
       <c r="IU47" s="181"/>
       <c r="IV47" s="181"/>
     </row>
-    <row r="48" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A48" s="174">
         <v>42736</v>
       </c>
@@ -21837,7 +21965,7 @@
       <c r="IU48" s="181"/>
       <c r="IV48" s="181"/>
     </row>
-    <row r="49" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A49" s="174">
         <v>42736</v>
       </c>
@@ -22107,7 +22235,7 @@
       <c r="IU49" s="181"/>
       <c r="IV49" s="181"/>
     </row>
-    <row r="50" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A50" s="174">
         <v>42736</v>
       </c>
@@ -22377,7 +22505,7 @@
       <c r="IU50" s="181"/>
       <c r="IV50" s="181"/>
     </row>
-    <row r="51" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A51" s="197">
         <v>42736</v>
       </c>
@@ -22401,7 +22529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A52" s="197">
         <v>42736</v>
       </c>
@@ -22425,7 +22553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A53" s="197">
         <v>42736</v>
       </c>
@@ -22449,7 +22577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A54" s="197">
         <v>42736</v>
       </c>
@@ -22473,7 +22601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A55" s="197">
         <v>42736</v>
       </c>
@@ -22497,7 +22625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A56" s="197">
         <v>42736</v>
       </c>
@@ -22521,7 +22649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A57" s="197">
         <v>42736</v>
       </c>
@@ -22545,7 +22673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A58" s="197">
         <v>42736</v>
       </c>
@@ -22569,7 +22697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A59" s="197">
         <v>42736</v>
       </c>
@@ -22593,7 +22721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A60" s="197">
         <v>42736</v>
       </c>
@@ -22617,7 +22745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A61" s="174">
         <v>42736</v>
       </c>
@@ -22887,7 +23015,7 @@
       <c r="IU61" s="181"/>
       <c r="IV61" s="181"/>
     </row>
-    <row r="62" spans="1:256" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:256" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A62" s="203">
         <v>42736</v>
       </c>
@@ -22918,7 +23046,7 @@
       <c r="P62" s="205"/>
       <c r="Q62" s="205"/>
     </row>
-    <row r="63" spans="1:256" s="201" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:256" s="201" customFormat="1" ht="13.75" customHeight="1">
       <c r="A63" s="203">
         <v>42736</v>
       </c>
@@ -22949,7 +23077,7 @@
       <c r="P63" s="207"/>
       <c r="Q63" s="207"/>
     </row>
-    <row r="64" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A64" s="203">
         <v>42736</v>
       </c>
@@ -22973,7 +23101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A65" s="203">
         <v>42736</v>
       </c>
@@ -22997,7 +23125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A66" s="203">
         <v>42736</v>
       </c>
@@ -23021,7 +23149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:256" s="201" customFormat="1" ht="13.25" customHeight="1">
       <c r="A67" s="203">
         <v>42736</v>
       </c>
@@ -23047,7 +23175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:256" s="179" customFormat="1" ht="13.75" customHeight="1">
       <c r="A68" s="202">
         <v>42736</v>
       </c>
@@ -23317,7 +23445,7 @@
       <c r="IU68" s="181"/>
       <c r="IV68" s="181"/>
     </row>
-    <row r="69" spans="1:256" s="169" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:256" s="169" customFormat="1" ht="13.25" customHeight="1">
       <c r="A69" s="164">
         <v>42736</v>
       </c>
@@ -23340,7 +23468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:256" s="169" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:256" s="169" customFormat="1" ht="13.25" customHeight="1">
       <c r="A70" s="164">
         <v>42736</v>
       </c>
@@ -23360,7 +23488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:256" s="169" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:256" s="169" customFormat="1" ht="13.25" customHeight="1">
       <c r="A71" s="164">
         <v>42736</v>
       </c>
@@ -23380,7 +23508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:256" s="217" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:256" s="217" customFormat="1" ht="13.25" customHeight="1">
       <c r="A72" s="216">
         <v>42736</v>
       </c>
@@ -23400,7 +23528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:256" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:256" s="169" customFormat="1" ht="13.75" customHeight="1">
       <c r="A73" s="164">
         <v>42736</v>
       </c>
@@ -23431,7 +23559,7 @@
       <c r="P73" s="196"/>
       <c r="Q73" s="196"/>
     </row>
-    <row r="74" spans="1:256" s="169" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:256" s="169" customFormat="1" ht="13.75" customHeight="1">
       <c r="A74" s="164">
         <v>42736</v>
       </c>
@@ -23465,6 +23593,7 @@
       <c r="Q74" s="196"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -23481,7 +23610,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="16" customWidth="1"/>
@@ -23500,7 +23629,7 @@
     <col min="19" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -23528,7 +23657,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="123.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -23574,7 +23703,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -23620,7 +23749,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -23652,7 +23781,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="12.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -23684,7 +23813,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="12.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -23716,7 +23845,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="12.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -23748,7 +23877,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="12.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -23780,7 +23909,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="12.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -23812,7 +23941,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="12.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -23844,7 +23973,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="12.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -23876,7 +24005,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" s="152" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="152" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="153">
         <v>42736</v>
       </c>
@@ -23910,7 +24039,7 @@
       <c r="Q12" s="155"/>
       <c r="R12" s="155"/>
     </row>
-    <row r="13" spans="1:18" s="152" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="152" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="153">
         <v>42736</v>
       </c>
@@ -23944,7 +24073,7 @@
       <c r="Q13" s="155"/>
       <c r="R13" s="155"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="12.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -23976,7 +24105,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="12.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -24008,7 +24137,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="12.75" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -24040,7 +24169,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" ht="12.75" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -24072,7 +24201,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" ht="12.75" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -24104,7 +24233,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" ht="12.75" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -24136,7 +24265,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" ht="12.75" customHeight="1">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
@@ -24168,7 +24297,7 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" ht="12.75" customHeight="1">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -24200,7 +24329,7 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" ht="12.75" customHeight="1">
       <c r="A22" s="10">
         <v>42736</v>
       </c>
@@ -24232,7 +24361,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" ht="13">
       <c r="A23" s="10">
         <v>42736</v>
       </c>
@@ -24264,7 +24393,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" ht="13">
       <c r="A24" s="10">
         <v>42736</v>
       </c>
@@ -24296,7 +24425,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" ht="14" customHeight="1">
       <c r="A25" s="10">
         <v>42736</v>
       </c>
@@ -24328,7 +24457,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" ht="14" customHeight="1">
       <c r="A26" s="10">
         <v>42736</v>
       </c>
@@ -24362,7 +24491,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" ht="14" customHeight="1">
       <c r="A27" s="10">
         <v>42736</v>
       </c>
@@ -24394,7 +24523,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1">
       <c r="A28" s="91">
         <v>42736</v>
       </c>
@@ -24426,7 +24555,7 @@
       <c r="Q28" s="94"/>
       <c r="R28" s="94"/>
     </row>
-    <row r="29" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1">
       <c r="A29" s="91">
         <v>42736</v>
       </c>
@@ -24458,7 +24587,7 @@
       <c r="Q29" s="94"/>
       <c r="R29" s="94"/>
     </row>
-    <row r="30" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1">
       <c r="A30" s="91">
         <v>42736</v>
       </c>
@@ -24490,7 +24619,7 @@
       <c r="Q30" s="94"/>
       <c r="R30" s="94"/>
     </row>
-    <row r="31" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1">
       <c r="A31" s="91">
         <v>42736</v>
       </c>
@@ -24522,7 +24651,7 @@
       <c r="Q31" s="94"/>
       <c r="R31" s="94"/>
     </row>
-    <row r="32" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" ht="13" customHeight="1">
       <c r="A32" s="10">
         <v>42736</v>
       </c>
@@ -24554,7 +24683,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" ht="12.75" customHeight="1">
       <c r="A33" s="10">
         <v>42736</v>
       </c>
@@ -24586,7 +24715,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" ht="13" customHeight="1">
       <c r="A34" s="10">
         <v>42736</v>
       </c>
@@ -24618,7 +24747,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" ht="14" customHeight="1">
       <c r="A35" s="10">
         <v>42736</v>
       </c>
@@ -24650,7 +24779,7 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" ht="14" customHeight="1">
       <c r="A36" s="10">
         <v>42736</v>
       </c>
@@ -24684,7 +24813,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" spans="1:18" s="140" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" s="140" customFormat="1" ht="14" customHeight="1">
       <c r="A37" s="137">
         <v>42736</v>
       </c>
@@ -24716,7 +24845,7 @@
       <c r="Q37" s="139"/>
       <c r="R37" s="139"/>
     </row>
-    <row r="38" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1">
       <c r="A38" s="91">
         <v>42736</v>
       </c>
@@ -24748,7 +24877,7 @@
       <c r="Q38" s="94"/>
       <c r="R38" s="94"/>
     </row>
-    <row r="39" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" s="89" customFormat="1" ht="14" customHeight="1">
       <c r="A39" s="91">
         <v>42736</v>
       </c>
@@ -24782,7 +24911,7 @@
       <c r="Q39" s="94"/>
       <c r="R39" s="94"/>
     </row>
-    <row r="40" spans="1:18" s="140" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" s="140" customFormat="1" ht="13.25" customHeight="1">
       <c r="A40" s="137">
         <v>42736</v>
       </c>
@@ -24814,7 +24943,7 @@
       <c r="Q40" s="137"/>
       <c r="R40" s="137"/>
     </row>
-    <row r="41" spans="1:18" s="89" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" s="89" customFormat="1" ht="13.25" customHeight="1">
       <c r="A41" s="91">
         <v>42736</v>
       </c>
@@ -24846,7 +24975,7 @@
       <c r="Q41" s="91"/>
       <c r="R41" s="91"/>
     </row>
-    <row r="42" spans="1:18" s="89" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" s="89" customFormat="1" ht="13.25" customHeight="1">
       <c r="A42" s="91">
         <v>42736</v>
       </c>
@@ -24878,7 +25007,7 @@
       <c r="Q42" s="88"/>
       <c r="R42" s="88"/>
     </row>
-    <row r="43" spans="1:18" s="89" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" s="89" customFormat="1" ht="13.25" customHeight="1">
       <c r="A43" s="91">
         <v>42736</v>
       </c>
@@ -24929,7 +25058,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
@@ -24944,7 +25073,7 @@
     <col min="11" max="11" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="71" t="s">
         <v>412</v>
       </c>
@@ -24973,7 +25102,7 @@
       <c r="J1" s="55"/>
       <c r="K1" s="72"/>
     </row>
-    <row r="2" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="126" customHeight="1">
       <c r="A2" s="75"/>
       <c r="B2" s="75"/>
       <c r="C2" s="76" t="s">
@@ -25004,7 +25133,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="79" t="s">
         <v>9</v>
       </c>
@@ -25039,7 +25168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="14" customHeight="1">
       <c r="A4" s="83">
         <v>43101</v>
       </c>
@@ -25062,7 +25191,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="14" customHeight="1">
       <c r="A5" s="83">
         <v>43101</v>
       </c>
@@ -25085,7 +25214,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="83">
         <v>43101</v>
       </c>
@@ -25108,7 +25237,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="83">
         <v>43101</v>
       </c>
@@ -25134,7 +25263,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="83">
         <v>43101</v>
       </c>
@@ -25163,7 +25292,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="83">
         <v>43101</v>
       </c>
@@ -25186,7 +25315,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="83">
         <v>43101</v>
       </c>
@@ -25209,7 +25338,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="83">
         <v>43101</v>
       </c>
@@ -25235,7 +25364,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="83">
         <v>43101</v>
       </c>
@@ -25272,7 +25401,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="17" customWidth="1"/>
@@ -25282,7 +25411,7 @@
     <col min="11" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -25302,7 +25431,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="35.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -25324,7 +25453,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -25346,7 +25475,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -25366,7 +25495,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -25386,7 +25515,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -25406,7 +25535,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -25426,7 +25555,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -25446,7 +25575,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -25466,7 +25595,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -25486,7 +25615,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -25506,7 +25635,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -25526,7 +25655,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -25546,7 +25675,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -25566,7 +25695,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -25600,10 +25729,10 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD38"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="18" customWidth="1"/>
@@ -25620,7 +25749,7 @@
     <col min="15" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>139</v>
       </c>
@@ -25644,7 +25773,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="46.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="46.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -25682,7 +25811,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -25722,7 +25851,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -25754,7 +25883,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" s="86" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="86" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="98">
         <v>42736</v>
       </c>
@@ -25786,7 +25915,7 @@
       <c r="M5" s="103"/>
       <c r="N5" s="103"/>
     </row>
-    <row r="6" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="13" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -25818,7 +25947,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="13" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -25850,7 +25979,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A8" s="98">
         <v>42736</v>
       </c>
@@ -25882,7 +26011,7 @@
       <c r="M8" s="103"/>
       <c r="N8" s="103"/>
     </row>
-    <row r="9" spans="1:14" s="117" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="117" customFormat="1" ht="13" customHeight="1">
       <c r="A9" s="111">
         <v>42736</v>
       </c>
@@ -25914,7 +26043,7 @@
       <c r="M9" s="116"/>
       <c r="N9" s="116"/>
     </row>
-    <row r="10" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="13" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -25946,7 +26075,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="13" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -25978,7 +26107,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="13" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -26010,7 +26139,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="13" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -26042,7 +26171,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="13" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -26074,7 +26203,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="13" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -26106,7 +26235,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="13" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -26138,7 +26267,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="13" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -26172,7 +26301,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="13" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -26206,7 +26335,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="13" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -26240,7 +26369,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="13" customHeight="1">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
@@ -26272,7 +26401,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="13" customHeight="1">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -26304,7 +26433,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A22" s="98">
         <v>42736</v>
       </c>
@@ -26336,7 +26465,7 @@
       <c r="M22" s="103"/>
       <c r="N22" s="103"/>
     </row>
-    <row r="23" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A23" s="98">
         <v>42736</v>
       </c>
@@ -26370,7 +26499,7 @@
       <c r="M23" s="103"/>
       <c r="N23" s="103"/>
     </row>
-    <row r="24" spans="1:14" s="128" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="128" customFormat="1" ht="12.75" customHeight="1">
       <c r="A24" s="120">
         <v>42736</v>
       </c>
@@ -26404,7 +26533,7 @@
       <c r="M24" s="126"/>
       <c r="N24" s="126"/>
     </row>
-    <row r="25" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="13" customHeight="1">
       <c r="A25" s="10">
         <v>42736</v>
       </c>
@@ -26436,7 +26565,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="13" customHeight="1">
       <c r="A26" s="10">
         <v>42736</v>
       </c>
@@ -26468,7 +26597,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="13" customHeight="1">
       <c r="A27" s="10">
         <v>42736</v>
       </c>
@@ -26500,7 +26629,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="13" customHeight="1">
       <c r="A28" s="10">
         <v>42736</v>
       </c>
@@ -26532,7 +26661,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" s="117" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="117" customFormat="1" ht="13" customHeight="1">
       <c r="A29" s="111">
         <v>42736</v>
       </c>
@@ -26564,7 +26693,7 @@
       <c r="M29" s="116"/>
       <c r="N29" s="116"/>
     </row>
-    <row r="30" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="13" customHeight="1">
       <c r="A30" s="10">
         <v>42736</v>
       </c>
@@ -26596,7 +26725,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A31" s="98">
         <v>42736</v>
       </c>
@@ -26628,7 +26757,7 @@
       <c r="M31" s="103"/>
       <c r="N31" s="103"/>
     </row>
-    <row r="32" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="13" customHeight="1">
       <c r="A32" s="10">
         <v>42736</v>
       </c>
@@ -26662,7 +26791,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="13" customHeight="1">
       <c r="A33" s="10">
         <v>42736</v>
       </c>
@@ -26696,7 +26825,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A34" s="84">
         <v>42736</v>
       </c>
@@ -26745,7 +26874,7 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="20" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="20" customWidth="1"/>
@@ -26759,7 +26888,7 @@
     <col min="13" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>158</v>
       </c>
@@ -26781,7 +26910,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="57.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -26811,7 +26940,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -26841,7 +26970,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -26865,7 +26994,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -26889,7 +27018,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -26913,7 +27042,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="13" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -26937,7 +27066,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="13" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -26961,7 +27090,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="13" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -26985,7 +27114,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="13" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -27009,7 +27138,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="13" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -27033,7 +27162,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -27057,7 +27186,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -27081,7 +27210,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="132" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="132" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="131">
         <v>42736</v>
       </c>
@@ -27119,10 +27248,10 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="21" customWidth="1"/>
@@ -27146,7 +27275,7 @@
     <col min="21" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
@@ -27176,7 +27305,7 @@
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
     </row>
-    <row r="2" spans="1:20" ht="112.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="112.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -27238,7 +27367,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -27300,7 +27429,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -27342,7 +27471,7 @@
       </c>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="13" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -27382,7 +27511,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="13" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -27424,7 +27553,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="13" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -27464,7 +27593,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" s="89" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="89" customFormat="1" ht="13.25" customHeight="1">
       <c r="A8" s="91">
         <v>42736</v>
       </c>
@@ -27504,7 +27633,7 @@
       <c r="S8" s="94"/>
       <c r="T8" s="92"/>
     </row>
-    <row r="9" spans="1:20" s="89" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="89" customFormat="1" ht="13.25" customHeight="1">
       <c r="A9" s="91">
         <v>42736</v>
       </c>
@@ -27544,7 +27673,7 @@
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
     </row>
-    <row r="10" spans="1:20" s="89" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="89" customFormat="1" ht="13.25" customHeight="1">
       <c r="A10" s="91">
         <v>42736</v>
       </c>
@@ -27584,7 +27713,7 @@
       <c r="S10" s="94"/>
       <c r="T10" s="92"/>
     </row>
-    <row r="11" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="13" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -27624,7 +27753,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="13" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -27666,7 +27795,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="14" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -27710,7 +27839,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="14" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -27754,7 +27883,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="14" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -27798,7 +27927,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="14" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -27842,7 +27971,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="12.75" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -27882,7 +28011,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="12.75" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -27922,7 +28051,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" s="132" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="132" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="131">
         <v>42736</v>
       </c>
